--- a/input/【86】大阪/国道９号豊岡管内ＣＣＴＶ設備設置工事/国道９号豊岡管内ＣＣＴＶ設備設置工事【個別_入札説明書_別紙-5】.xlsx
+++ b/input/【86】大阪/国道９号豊岡管内ＣＣＴＶ設備設置工事/国道９号豊岡管内ＣＣＴＶ設備設置工事【個別_入札説明書_別紙-5】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaneko-takeshi\KK_KC Dropbox\KC-技術審査_工事-L4\R5～R6年度\兵庫B\★\豊岡\25_国道９号豊岡管内ＣＣＴＶ設備設置工事\完成版\01_施工能力評価型Ⅰ・Ⅱ型、電通チャレンジタイプ（通信・受変電）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aayush.yadav\Downloads\PDFextract20251015 (1)\PDFextract\input\【86】大阪\国道９号豊岡管内ＣＣＴＶ設備設置工事\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5479B9-182E-42B0-8105-408CC2B0BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A05ED20-FCCB-4412-AC09-83B7233C4291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.1技術評価項目" sheetId="32" r:id="rId1"/>
@@ -5257,27 +5257,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5305,26 +5326,143 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5347,146 +5485,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5503,36 +5527,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5631,7 +5631,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -7809,7 +7809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7835,251 +7837,251 @@
       <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90" t="s">
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="50">
         <v>4</v>
       </c>
       <c r="I4" s="50">
         <v>4</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="94" t="s">
         <v>61</v>
       </c>
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="50">
         <v>4</v>
       </c>
       <c r="I5" s="50">
         <v>4</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="50">
         <v>1</v>
       </c>
       <c r="I6" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="106"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="89" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="50" t="s">
         <v>77</v>
       </c>
       <c r="I7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="106"/>
+      <c r="J7" s="95"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="50">
         <v>1</v>
       </c>
       <c r="I8" s="50">
         <v>2</v>
       </c>
-      <c r="J8" s="106"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="50">
         <v>3</v>
       </c>
       <c r="I9" s="50">
         <v>3</v>
       </c>
-      <c r="J9" s="106"/>
+      <c r="J9" s="95"/>
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="89" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="50">
         <v>1</v>
       </c>
       <c r="I10" s="50">
         <v>2</v>
       </c>
-      <c r="J10" s="106"/>
+      <c r="J10" s="95"/>
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="89" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="50">
         <v>1</v>
       </c>
       <c r="I11" s="50">
         <v>2</v>
       </c>
-      <c r="J11" s="106"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="89" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="106"/>
+      <c r="J12" s="95"/>
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="89" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="50" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="106"/>
+      <c r="J13" s="95"/>
       <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="101"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="89" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="106"/>
+      <c r="J14" s="95"/>
       <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:16" s="45" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="86" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:16" s="45" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8099,35 +8101,35 @@
     </row>
     <row r="17" spans="1:16" s="45" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:16" s="46" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90" t="s">
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:16" s="45" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="89" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="66">
         <v>2</v>
       </c>
@@ -8153,77 +8155,77 @@
       <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
     </row>
     <row r="22" spans="1:16" s="46" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="90" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90" t="s">
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
     </row>
     <row r="23" spans="1:16" s="45" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="104"/>
+      <c r="C23" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="51">
         <v>15</v>
       </c>
       <c r="I23" s="51">
         <v>15</v>
       </c>
-      <c r="J23" s="84" t="s">
+      <c r="J23" s="96" t="s">
         <v>62</v>
       </c>
       <c r="P23" s="52"/>
     </row>
     <row r="24" spans="1:16" s="45" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="86" t="s">
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="50">
         <v>15</v>
       </c>
       <c r="I24" s="50">
         <v>15</v>
       </c>
-      <c r="J24" s="85"/>
+      <c r="J24" s="97"/>
       <c r="P24" s="52"/>
     </row>
     <row r="25" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -8410,6 +8412,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -8426,21 +8443,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8503,2755 +8505,2755 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="90"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="125" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="119">
+      <c r="G5" s="120">
         <v>4</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="119">
+      <c r="H5" s="121"/>
+      <c r="I5" s="120">
         <v>4</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="116" t="s">
+      <c r="J5" s="121"/>
+      <c r="K5" s="126" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="137"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="117"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="127"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="117"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="127"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="137"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="117"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="137"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="117"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="127"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="137"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="117"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="127"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="117"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="127"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="137"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="117"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="127"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="117"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="127"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="117"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="127"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="117"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="127"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="117"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="127"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="137"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="117"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="127"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="137"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="117"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="127"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="140"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="118"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="125" t="s">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="119">
+      <c r="G20" s="120">
         <v>4</v>
       </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="119">
+      <c r="H20" s="121"/>
+      <c r="I20" s="120">
         <v>4</v>
       </c>
-      <c r="J20" s="120"/>
-      <c r="K20" s="116" t="s">
+      <c r="J20" s="121"/>
+      <c r="K20" s="126" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="117"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="117"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="117"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="127"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="117"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="127"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="117"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="127"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="117"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="117"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="127"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="117"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="127"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="117"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="127"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="155"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="117"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="127"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="155"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="117"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="127"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="117"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="127"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="117"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="127"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="117"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="127"/>
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="155"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="117"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="127"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="117"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="127"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="155"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="117"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="127"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="155"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="117"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="127"/>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="155"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="117"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="127"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="155"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="117"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="127"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="2:12" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="158"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="118"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="128"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="114" t="s">
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="105" t="s">
+      <c r="G42" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105" t="s">
+      <c r="H42" s="94"/>
+      <c r="I42" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105" t="s">
+      <c r="J42" s="94"/>
+      <c r="K42" s="94" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
     </row>
     <row r="44" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="144"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
     </row>
     <row r="45" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
     </row>
     <row r="46" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="144"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
     </row>
     <row r="47" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
     </row>
     <row r="48" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
     </row>
     <row r="49" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="144"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
     </row>
     <row r="50" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
     </row>
     <row r="51" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
     </row>
     <row r="52" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="94"/>
     </row>
     <row r="53" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
     </row>
     <row r="54" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="144"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="94"/>
     </row>
     <row r="55" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="144"/>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
     </row>
     <row r="56" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="144"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="94"/>
     </row>
     <row r="57" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="94"/>
     </row>
     <row r="58" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="114" t="s">
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="116" t="s">
+      <c r="G58" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116" t="s">
+      <c r="H58" s="126"/>
+      <c r="I58" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="116"/>
-      <c r="K58" s="105" t="s">
+      <c r="J58" s="126"/>
+      <c r="K58" s="94" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="59" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="144"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="117"/>
-      <c r="K59" s="105"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="146"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="94"/>
     </row>
     <row r="60" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="144"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="105"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="94"/>
     </row>
     <row r="61" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="144"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="117"/>
-      <c r="K61" s="105"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="94"/>
     </row>
     <row r="62" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="144"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="117"/>
-      <c r="I62" s="117"/>
-      <c r="J62" s="117"/>
-      <c r="K62" s="105"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="94"/>
     </row>
     <row r="63" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="144"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="105"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="94"/>
     </row>
     <row r="64" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="105"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="94"/>
     </row>
     <row r="65" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="144"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="117"/>
-      <c r="K65" s="105"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="94"/>
     </row>
     <row r="66" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="105"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="94"/>
     </row>
     <row r="67" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="144"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117"/>
-      <c r="I67" s="117"/>
-      <c r="J67" s="117"/>
-      <c r="K67" s="105"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="94"/>
     </row>
     <row r="68" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="144"/>
-      <c r="C68" s="144"/>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="117"/>
-      <c r="H68" s="117"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="117"/>
-      <c r="K68" s="105"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="94"/>
     </row>
     <row r="69" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="144"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117"/>
-      <c r="J69" s="117"/>
-      <c r="K69" s="105"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="94"/>
     </row>
     <row r="70" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="144"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="105"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="127"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="94"/>
     </row>
     <row r="71" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="144"/>
-      <c r="C71" s="144"/>
-      <c r="D71" s="144"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="117"/>
-      <c r="K71" s="105"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="127"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="94"/>
     </row>
     <row r="72" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="144"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="144"/>
-      <c r="E72" s="144"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
-      <c r="I72" s="117"/>
-      <c r="J72" s="117"/>
-      <c r="K72" s="105"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="127"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="127"/>
+      <c r="K72" s="94"/>
     </row>
     <row r="73" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="144"/>
-      <c r="C73" s="144"/>
-      <c r="D73" s="144"/>
-      <c r="E73" s="144"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="105"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="127"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="94"/>
     </row>
     <row r="74" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="144"/>
-      <c r="C74" s="144"/>
-      <c r="D74" s="144"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="114"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="117"/>
-      <c r="I74" s="117"/>
-      <c r="J74" s="117"/>
-      <c r="K74" s="105"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="146"/>
+      <c r="G74" s="127"/>
+      <c r="H74" s="127"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="94"/>
     </row>
     <row r="75" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="144"/>
-      <c r="C75" s="144"/>
-      <c r="D75" s="144"/>
-      <c r="E75" s="144"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="117"/>
-      <c r="H75" s="117"/>
-      <c r="I75" s="117"/>
-      <c r="J75" s="117"/>
-      <c r="K75" s="105"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="146"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="127"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="94"/>
     </row>
     <row r="76" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="144"/>
-      <c r="C76" s="144"/>
-      <c r="D76" s="144"/>
-      <c r="E76" s="144"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
-      <c r="J76" s="117"/>
-      <c r="K76" s="105"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="107"/>
+      <c r="E76" s="107"/>
+      <c r="F76" s="146"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="127"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="94"/>
     </row>
     <row r="77" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="144"/>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
-      <c r="I77" s="117"/>
-      <c r="J77" s="117"/>
-      <c r="K77" s="105"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="146"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="127"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="94"/>
     </row>
     <row r="78" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="144"/>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
-      <c r="E78" s="144"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="117"/>
-      <c r="I78" s="117"/>
-      <c r="J78" s="117"/>
-      <c r="K78" s="105"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="107"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="146"/>
+      <c r="G78" s="127"/>
+      <c r="H78" s="127"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="94"/>
     </row>
     <row r="79" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="144"/>
-      <c r="C79" s="144"/>
-      <c r="D79" s="144"/>
-      <c r="E79" s="144"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="117"/>
-      <c r="I79" s="117"/>
-      <c r="J79" s="117"/>
-      <c r="K79" s="105"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="146"/>
+      <c r="G79" s="127"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="127"/>
+      <c r="K79" s="94"/>
     </row>
     <row r="80" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="144"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
-      <c r="E80" s="144"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="117"/>
-      <c r="I80" s="117"/>
-      <c r="J80" s="117"/>
-      <c r="K80" s="105"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="107"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="94"/>
     </row>
     <row r="81" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="144"/>
-      <c r="C81" s="144"/>
-      <c r="D81" s="144"/>
-      <c r="E81" s="144"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="117"/>
-      <c r="H81" s="117"/>
-      <c r="I81" s="117"/>
-      <c r="J81" s="117"/>
-      <c r="K81" s="105"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="146"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="94"/>
     </row>
     <row r="82" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="144"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="144"/>
-      <c r="E82" s="144"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117"/>
-      <c r="J82" s="117"/>
-      <c r="K82" s="105"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="107"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="146"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="127"/>
+      <c r="K82" s="94"/>
     </row>
     <row r="83" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="144"/>
-      <c r="C83" s="144"/>
-      <c r="D83" s="144"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="117"/>
-      <c r="J83" s="117"/>
-      <c r="K83" s="105"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="107"/>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="146"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="94"/>
     </row>
     <row r="84" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="144"/>
-      <c r="C84" s="144"/>
-      <c r="D84" s="144"/>
-      <c r="E84" s="144"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="117"/>
-      <c r="H84" s="117"/>
-      <c r="I84" s="117"/>
-      <c r="J84" s="117"/>
-      <c r="K84" s="105"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="146"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="127"/>
+      <c r="I84" s="127"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="94"/>
     </row>
     <row r="85" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="144"/>
-      <c r="C85" s="144"/>
-      <c r="D85" s="144"/>
-      <c r="E85" s="144"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="117"/>
-      <c r="I85" s="117"/>
-      <c r="J85" s="117"/>
-      <c r="K85" s="105"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="146"/>
+      <c r="G85" s="127"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="127"/>
+      <c r="J85" s="127"/>
+      <c r="K85" s="94"/>
     </row>
     <row r="86" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="144"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="117"/>
-      <c r="J86" s="117"/>
-      <c r="K86" s="105"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="146"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="127"/>
+      <c r="I86" s="127"/>
+      <c r="J86" s="127"/>
+      <c r="K86" s="94"/>
     </row>
     <row r="87" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="144"/>
-      <c r="C87" s="144"/>
-      <c r="D87" s="144"/>
-      <c r="E87" s="144"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="117"/>
-      <c r="H87" s="117"/>
-      <c r="I87" s="117"/>
-      <c r="J87" s="117"/>
-      <c r="K87" s="105"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="146"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="94"/>
     </row>
     <row r="88" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="144"/>
-      <c r="C88" s="144"/>
-      <c r="D88" s="144"/>
-      <c r="E88" s="144"/>
-      <c r="F88" s="114"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="117"/>
-      <c r="I88" s="117"/>
-      <c r="J88" s="117"/>
-      <c r="K88" s="105"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="107"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="146"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="127"/>
+      <c r="J88" s="127"/>
+      <c r="K88" s="94"/>
     </row>
     <row r="89" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="144"/>
-      <c r="C89" s="144"/>
-      <c r="D89" s="144"/>
-      <c r="E89" s="144"/>
-      <c r="F89" s="114"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="105"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="107"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="127"/>
+      <c r="I89" s="127"/>
+      <c r="J89" s="127"/>
+      <c r="K89" s="94"/>
     </row>
     <row r="90" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="144"/>
-      <c r="C90" s="144"/>
-      <c r="D90" s="144"/>
-      <c r="E90" s="144"/>
-      <c r="F90" s="114"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
-      <c r="I90" s="117"/>
-      <c r="J90" s="117"/>
-      <c r="K90" s="105"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="94"/>
     </row>
     <row r="91" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="144"/>
-      <c r="C91" s="144"/>
-      <c r="D91" s="144"/>
-      <c r="E91" s="144"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="118"/>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="105"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="146"/>
+      <c r="G91" s="128"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="128"/>
+      <c r="J91" s="128"/>
+      <c r="K91" s="94"/>
     </row>
     <row r="92" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="134" t="s">
+      <c r="B92" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="135"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="136"/>
-      <c r="F92" s="125" t="s">
+      <c r="C92" s="132"/>
+      <c r="D92" s="132"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="117" t="s">
         <v>112</v>
       </c>
-      <c r="G92" s="119">
+      <c r="G92" s="120">
         <v>1</v>
       </c>
-      <c r="H92" s="120"/>
-      <c r="I92" s="119">
+      <c r="H92" s="121"/>
+      <c r="I92" s="120">
         <v>2</v>
       </c>
-      <c r="J92" s="120"/>
-      <c r="K92" s="116" t="s">
+      <c r="J92" s="121"/>
+      <c r="K92" s="126" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="93" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="137"/>
-      <c r="C93" s="138"/>
-      <c r="D93" s="138"/>
-      <c r="E93" s="139"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="121"/>
-      <c r="H93" s="122"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="117"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="135"/>
+      <c r="D93" s="135"/>
+      <c r="E93" s="136"/>
+      <c r="F93" s="118"/>
+      <c r="G93" s="122"/>
+      <c r="H93" s="123"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="123"/>
+      <c r="K93" s="127"/>
     </row>
     <row r="94" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="137"/>
-      <c r="C94" s="138"/>
-      <c r="D94" s="138"/>
-      <c r="E94" s="139"/>
-      <c r="F94" s="126"/>
-      <c r="G94" s="121"/>
-      <c r="H94" s="122"/>
-      <c r="I94" s="121"/>
-      <c r="J94" s="122"/>
-      <c r="K94" s="117"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="135"/>
+      <c r="D94" s="135"/>
+      <c r="E94" s="136"/>
+      <c r="F94" s="118"/>
+      <c r="G94" s="122"/>
+      <c r="H94" s="123"/>
+      <c r="I94" s="122"/>
+      <c r="J94" s="123"/>
+      <c r="K94" s="127"/>
     </row>
     <row r="95" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="137"/>
-      <c r="C95" s="138"/>
-      <c r="D95" s="138"/>
-      <c r="E95" s="139"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="121"/>
-      <c r="H95" s="122"/>
-      <c r="I95" s="121"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="117"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="135"/>
+      <c r="D95" s="135"/>
+      <c r="E95" s="136"/>
+      <c r="F95" s="118"/>
+      <c r="G95" s="122"/>
+      <c r="H95" s="123"/>
+      <c r="I95" s="122"/>
+      <c r="J95" s="123"/>
+      <c r="K95" s="127"/>
     </row>
     <row r="96" spans="2:11" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="137"/>
-      <c r="C96" s="138"/>
-      <c r="D96" s="138"/>
-      <c r="E96" s="139"/>
-      <c r="F96" s="126"/>
-      <c r="G96" s="121"/>
-      <c r="H96" s="122"/>
-      <c r="I96" s="121"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="117"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="135"/>
+      <c r="D96" s="135"/>
+      <c r="E96" s="136"/>
+      <c r="F96" s="118"/>
+      <c r="G96" s="122"/>
+      <c r="H96" s="123"/>
+      <c r="I96" s="122"/>
+      <c r="J96" s="123"/>
+      <c r="K96" s="127"/>
     </row>
     <row r="97" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="137"/>
-      <c r="C97" s="138"/>
-      <c r="D97" s="138"/>
-      <c r="E97" s="139"/>
-      <c r="F97" s="126"/>
-      <c r="G97" s="121"/>
-      <c r="H97" s="122"/>
-      <c r="I97" s="121"/>
-      <c r="J97" s="122"/>
-      <c r="K97" s="117"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="135"/>
+      <c r="D97" s="135"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="122"/>
+      <c r="H97" s="123"/>
+      <c r="I97" s="122"/>
+      <c r="J97" s="123"/>
+      <c r="K97" s="127"/>
     </row>
     <row r="98" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="137"/>
-      <c r="C98" s="138"/>
-      <c r="D98" s="138"/>
-      <c r="E98" s="139"/>
-      <c r="F98" s="126"/>
-      <c r="G98" s="121"/>
-      <c r="H98" s="122"/>
-      <c r="I98" s="121"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="117"/>
+      <c r="B98" s="134"/>
+      <c r="C98" s="135"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="136"/>
+      <c r="F98" s="118"/>
+      <c r="G98" s="122"/>
+      <c r="H98" s="123"/>
+      <c r="I98" s="122"/>
+      <c r="J98" s="123"/>
+      <c r="K98" s="127"/>
     </row>
     <row r="99" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="137"/>
-      <c r="C99" s="138"/>
-      <c r="D99" s="138"/>
-      <c r="E99" s="139"/>
-      <c r="F99" s="126"/>
-      <c r="G99" s="121"/>
-      <c r="H99" s="122"/>
-      <c r="I99" s="121"/>
-      <c r="J99" s="122"/>
-      <c r="K99" s="117"/>
+      <c r="B99" s="134"/>
+      <c r="C99" s="135"/>
+      <c r="D99" s="135"/>
+      <c r="E99" s="136"/>
+      <c r="F99" s="118"/>
+      <c r="G99" s="122"/>
+      <c r="H99" s="123"/>
+      <c r="I99" s="122"/>
+      <c r="J99" s="123"/>
+      <c r="K99" s="127"/>
     </row>
     <row r="100" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="137"/>
-      <c r="C100" s="138"/>
-      <c r="D100" s="138"/>
-      <c r="E100" s="139"/>
-      <c r="F100" s="126"/>
-      <c r="G100" s="121"/>
-      <c r="H100" s="122"/>
-      <c r="I100" s="121"/>
-      <c r="J100" s="122"/>
-      <c r="K100" s="117"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="135"/>
+      <c r="D100" s="135"/>
+      <c r="E100" s="136"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="122"/>
+      <c r="H100" s="123"/>
+      <c r="I100" s="122"/>
+      <c r="J100" s="123"/>
+      <c r="K100" s="127"/>
     </row>
     <row r="101" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="137"/>
-      <c r="C101" s="138"/>
-      <c r="D101" s="138"/>
-      <c r="E101" s="139"/>
-      <c r="F101" s="126"/>
-      <c r="G101" s="121"/>
-      <c r="H101" s="122"/>
-      <c r="I101" s="121"/>
-      <c r="J101" s="122"/>
-      <c r="K101" s="117"/>
+      <c r="B101" s="134"/>
+      <c r="C101" s="135"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="136"/>
+      <c r="F101" s="118"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="123"/>
+      <c r="I101" s="122"/>
+      <c r="J101" s="123"/>
+      <c r="K101" s="127"/>
     </row>
     <row r="102" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="137"/>
-      <c r="C102" s="138"/>
-      <c r="D102" s="138"/>
-      <c r="E102" s="139"/>
-      <c r="F102" s="126"/>
-      <c r="G102" s="121"/>
-      <c r="H102" s="122"/>
-      <c r="I102" s="121"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="117"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="135"/>
+      <c r="D102" s="135"/>
+      <c r="E102" s="136"/>
+      <c r="F102" s="118"/>
+      <c r="G102" s="122"/>
+      <c r="H102" s="123"/>
+      <c r="I102" s="122"/>
+      <c r="J102" s="123"/>
+      <c r="K102" s="127"/>
     </row>
     <row r="103" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="137"/>
-      <c r="C103" s="138"/>
-      <c r="D103" s="138"/>
-      <c r="E103" s="139"/>
-      <c r="F103" s="126"/>
-      <c r="G103" s="121"/>
-      <c r="H103" s="122"/>
-      <c r="I103" s="121"/>
-      <c r="J103" s="122"/>
-      <c r="K103" s="117"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="136"/>
+      <c r="F103" s="118"/>
+      <c r="G103" s="122"/>
+      <c r="H103" s="123"/>
+      <c r="I103" s="122"/>
+      <c r="J103" s="123"/>
+      <c r="K103" s="127"/>
     </row>
     <row r="104" spans="2:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="140"/>
-      <c r="C104" s="141"/>
-      <c r="D104" s="141"/>
-      <c r="E104" s="142"/>
-      <c r="F104" s="127"/>
-      <c r="G104" s="123"/>
-      <c r="H104" s="124"/>
-      <c r="I104" s="123"/>
-      <c r="J104" s="124"/>
-      <c r="K104" s="118"/>
+      <c r="B104" s="137"/>
+      <c r="C104" s="138"/>
+      <c r="D104" s="138"/>
+      <c r="E104" s="139"/>
+      <c r="F104" s="119"/>
+      <c r="G104" s="124"/>
+      <c r="H104" s="125"/>
+      <c r="I104" s="124"/>
+      <c r="J104" s="125"/>
+      <c r="K104" s="128"/>
     </row>
     <row r="105" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="143" t="s">
+      <c r="B105" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="144"/>
-      <c r="D105" s="144"/>
-      <c r="E105" s="144"/>
-      <c r="F105" s="144" t="s">
+      <c r="C105" s="107"/>
+      <c r="D105" s="107"/>
+      <c r="E105" s="107"/>
+      <c r="F105" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="G105" s="105">
+      <c r="G105" s="94">
         <v>3</v>
       </c>
-      <c r="H105" s="105"/>
-      <c r="I105" s="105">
+      <c r="H105" s="94"/>
+      <c r="I105" s="94">
         <v>3</v>
       </c>
-      <c r="J105" s="105"/>
-      <c r="K105" s="105" t="s">
+      <c r="J105" s="94"/>
+      <c r="K105" s="94" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="144"/>
-      <c r="C106" s="144"/>
-      <c r="D106" s="144"/>
-      <c r="E106" s="144"/>
-      <c r="F106" s="144"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="107"/>
+      <c r="D106" s="107"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="107"/>
+      <c r="G106" s="94"/>
+      <c r="H106" s="94"/>
+      <c r="I106" s="94"/>
+      <c r="J106" s="94"/>
+      <c r="K106" s="94"/>
     </row>
     <row r="107" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="144"/>
-      <c r="C107" s="144"/>
-      <c r="D107" s="144"/>
-      <c r="E107" s="144"/>
-      <c r="F107" s="144"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="105"/>
+      <c r="B107" s="107"/>
+      <c r="C107" s="107"/>
+      <c r="D107" s="107"/>
+      <c r="E107" s="107"/>
+      <c r="F107" s="107"/>
+      <c r="G107" s="94"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="94"/>
     </row>
     <row r="108" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="144"/>
-      <c r="C108" s="144"/>
-      <c r="D108" s="144"/>
-      <c r="E108" s="144"/>
-      <c r="F108" s="144"/>
-      <c r="G108" s="105"/>
-      <c r="H108" s="105"/>
-      <c r="I108" s="105"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="105"/>
+      <c r="B108" s="107"/>
+      <c r="C108" s="107"/>
+      <c r="D108" s="107"/>
+      <c r="E108" s="107"/>
+      <c r="F108" s="107"/>
+      <c r="G108" s="94"/>
+      <c r="H108" s="94"/>
+      <c r="I108" s="94"/>
+      <c r="J108" s="94"/>
+      <c r="K108" s="94"/>
     </row>
     <row r="109" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="144"/>
-      <c r="C109" s="144"/>
-      <c r="D109" s="144"/>
-      <c r="E109" s="144"/>
-      <c r="F109" s="144"/>
-      <c r="G109" s="105"/>
-      <c r="H109" s="105"/>
-      <c r="I109" s="105"/>
-      <c r="J109" s="105"/>
-      <c r="K109" s="105"/>
+      <c r="B109" s="107"/>
+      <c r="C109" s="107"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="107"/>
+      <c r="G109" s="94"/>
+      <c r="H109" s="94"/>
+      <c r="I109" s="94"/>
+      <c r="J109" s="94"/>
+      <c r="K109" s="94"/>
       <c r="L109" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="110" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="144"/>
-      <c r="C110" s="144"/>
-      <c r="D110" s="144"/>
-      <c r="E110" s="144"/>
-      <c r="F110" s="144"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
+      <c r="B110" s="107"/>
+      <c r="C110" s="107"/>
+      <c r="D110" s="107"/>
+      <c r="E110" s="107"/>
+      <c r="F110" s="107"/>
+      <c r="G110" s="94"/>
+      <c r="H110" s="94"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="94"/>
+      <c r="K110" s="94"/>
     </row>
     <row r="111" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="144"/>
-      <c r="C111" s="144"/>
-      <c r="D111" s="144"/>
-      <c r="E111" s="144"/>
-      <c r="F111" s="144"/>
-      <c r="G111" s="105"/>
-      <c r="H111" s="105"/>
-      <c r="I111" s="105"/>
-      <c r="J111" s="105"/>
-      <c r="K111" s="105"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
+      <c r="F111" s="107"/>
+      <c r="G111" s="94"/>
+      <c r="H111" s="94"/>
+      <c r="I111" s="94"/>
+      <c r="J111" s="94"/>
+      <c r="K111" s="94"/>
     </row>
     <row r="112" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="144"/>
-      <c r="C112" s="144"/>
-      <c r="D112" s="144"/>
-      <c r="E112" s="144"/>
-      <c r="F112" s="144"/>
-      <c r="G112" s="105"/>
-      <c r="H112" s="105"/>
-      <c r="I112" s="105"/>
-      <c r="J112" s="105"/>
-      <c r="K112" s="105"/>
+      <c r="B112" s="107"/>
+      <c r="C112" s="107"/>
+      <c r="D112" s="107"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="107"/>
+      <c r="G112" s="94"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="94"/>
     </row>
     <row r="113" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="144"/>
-      <c r="C113" s="144"/>
-      <c r="D113" s="144"/>
-      <c r="E113" s="144"/>
-      <c r="F113" s="144"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="105"/>
-      <c r="J113" s="105"/>
-      <c r="K113" s="105"/>
+      <c r="B113" s="107"/>
+      <c r="C113" s="107"/>
+      <c r="D113" s="107"/>
+      <c r="E113" s="107"/>
+      <c r="F113" s="107"/>
+      <c r="G113" s="94"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="94"/>
     </row>
     <row r="114" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="144"/>
-      <c r="C114" s="144"/>
-      <c r="D114" s="144"/>
-      <c r="E114" s="144"/>
-      <c r="F114" s="144"/>
-      <c r="G114" s="105"/>
-      <c r="H114" s="105"/>
-      <c r="I114" s="105"/>
-      <c r="J114" s="105"/>
-      <c r="K114" s="105"/>
+      <c r="B114" s="107"/>
+      <c r="C114" s="107"/>
+      <c r="D114" s="107"/>
+      <c r="E114" s="107"/>
+      <c r="F114" s="107"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="94"/>
+      <c r="K114" s="94"/>
     </row>
     <row r="115" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="144"/>
-      <c r="C115" s="144"/>
-      <c r="D115" s="144"/>
-      <c r="E115" s="144"/>
-      <c r="F115" s="144"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="105"/>
-      <c r="I115" s="105"/>
-      <c r="J115" s="105"/>
-      <c r="K115" s="105"/>
+      <c r="B115" s="107"/>
+      <c r="C115" s="107"/>
+      <c r="D115" s="107"/>
+      <c r="E115" s="107"/>
+      <c r="F115" s="107"/>
+      <c r="G115" s="94"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="94"/>
+      <c r="J115" s="94"/>
+      <c r="K115" s="94"/>
     </row>
     <row r="116" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="144"/>
-      <c r="C116" s="144"/>
-      <c r="D116" s="144"/>
-      <c r="E116" s="144"/>
-      <c r="F116" s="144"/>
-      <c r="G116" s="105"/>
-      <c r="H116" s="105"/>
-      <c r="I116" s="105"/>
-      <c r="J116" s="105"/>
-      <c r="K116" s="105"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="107"/>
+      <c r="D116" s="107"/>
+      <c r="E116" s="107"/>
+      <c r="F116" s="107"/>
+      <c r="G116" s="94"/>
+      <c r="H116" s="94"/>
+      <c r="I116" s="94"/>
+      <c r="J116" s="94"/>
+      <c r="K116" s="94"/>
     </row>
     <row r="117" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="144"/>
-      <c r="C117" s="144"/>
-      <c r="D117" s="144"/>
-      <c r="E117" s="144"/>
-      <c r="F117" s="144"/>
-      <c r="G117" s="105"/>
-      <c r="H117" s="105"/>
-      <c r="I117" s="105"/>
-      <c r="J117" s="105"/>
-      <c r="K117" s="105"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="107"/>
+      <c r="D117" s="107"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="107"/>
+      <c r="G117" s="94"/>
+      <c r="H117" s="94"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="94"/>
+      <c r="K117" s="94"/>
     </row>
     <row r="118" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="144"/>
-      <c r="C118" s="144"/>
-      <c r="D118" s="144"/>
-      <c r="E118" s="144"/>
-      <c r="F118" s="144"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="105"/>
-      <c r="I118" s="105"/>
-      <c r="J118" s="105"/>
-      <c r="K118" s="105"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="107"/>
+      <c r="D118" s="107"/>
+      <c r="E118" s="107"/>
+      <c r="F118" s="107"/>
+      <c r="G118" s="94"/>
+      <c r="H118" s="94"/>
+      <c r="I118" s="94"/>
+      <c r="J118" s="94"/>
+      <c r="K118" s="94"/>
     </row>
     <row r="119" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="144"/>
-      <c r="C119" s="144"/>
-      <c r="D119" s="144"/>
-      <c r="E119" s="144"/>
-      <c r="F119" s="144"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
-      <c r="I119" s="105"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="107"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="107"/>
+      <c r="G119" s="94"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="94"/>
+      <c r="J119" s="94"/>
+      <c r="K119" s="94"/>
     </row>
     <row r="120" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="144"/>
-      <c r="C120" s="144"/>
-      <c r="D120" s="144"/>
-      <c r="E120" s="144"/>
-      <c r="F120" s="144"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="107"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="107"/>
+      <c r="F120" s="107"/>
+      <c r="G120" s="94"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="94"/>
+      <c r="J120" s="94"/>
+      <c r="K120" s="94"/>
     </row>
     <row r="121" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="144"/>
-      <c r="C121" s="144"/>
-      <c r="D121" s="144"/>
-      <c r="E121" s="144"/>
-      <c r="F121" s="144"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="107"/>
+      <c r="D121" s="107"/>
+      <c r="E121" s="107"/>
+      <c r="F121" s="107"/>
+      <c r="G121" s="94"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="94"/>
+      <c r="J121" s="94"/>
+      <c r="K121" s="94"/>
     </row>
     <row r="122" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="144"/>
-      <c r="C122" s="144"/>
-      <c r="D122" s="144"/>
-      <c r="E122" s="144"/>
-      <c r="F122" s="144"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
-      <c r="I122" s="105"/>
-      <c r="J122" s="105"/>
-      <c r="K122" s="105"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="107"/>
+      <c r="E122" s="107"/>
+      <c r="F122" s="107"/>
+      <c r="G122" s="94"/>
+      <c r="H122" s="94"/>
+      <c r="I122" s="94"/>
+      <c r="J122" s="94"/>
+      <c r="K122" s="94"/>
     </row>
     <row r="123" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="144"/>
-      <c r="C123" s="144"/>
-      <c r="D123" s="144"/>
-      <c r="E123" s="144"/>
-      <c r="F123" s="144"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="105"/>
-      <c r="I123" s="105"/>
-      <c r="J123" s="105"/>
-      <c r="K123" s="105"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="107"/>
+      <c r="F123" s="107"/>
+      <c r="G123" s="94"/>
+      <c r="H123" s="94"/>
+      <c r="I123" s="94"/>
+      <c r="J123" s="94"/>
+      <c r="K123" s="94"/>
     </row>
     <row r="124" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="144"/>
-      <c r="C124" s="144"/>
-      <c r="D124" s="144"/>
-      <c r="E124" s="144"/>
-      <c r="F124" s="144"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
+      <c r="F124" s="107"/>
+      <c r="G124" s="94"/>
+      <c r="H124" s="94"/>
+      <c r="I124" s="94"/>
+      <c r="J124" s="94"/>
+      <c r="K124" s="94"/>
     </row>
     <row r="125" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="144"/>
-      <c r="C125" s="144"/>
-      <c r="D125" s="144"/>
-      <c r="E125" s="144"/>
-      <c r="F125" s="144"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="105"/>
-      <c r="I125" s="105"/>
-      <c r="J125" s="105"/>
-      <c r="K125" s="105"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="107"/>
+      <c r="D125" s="107"/>
+      <c r="E125" s="107"/>
+      <c r="F125" s="107"/>
+      <c r="G125" s="94"/>
+      <c r="H125" s="94"/>
+      <c r="I125" s="94"/>
+      <c r="J125" s="94"/>
+      <c r="K125" s="94"/>
     </row>
     <row r="126" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="144"/>
-      <c r="C126" s="144"/>
-      <c r="D126" s="144"/>
-      <c r="E126" s="144"/>
-      <c r="F126" s="144"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
+      <c r="B126" s="107"/>
+      <c r="C126" s="107"/>
+      <c r="D126" s="107"/>
+      <c r="E126" s="107"/>
+      <c r="F126" s="107"/>
+      <c r="G126" s="94"/>
+      <c r="H126" s="94"/>
+      <c r="I126" s="94"/>
+      <c r="J126" s="94"/>
+      <c r="K126" s="94"/>
     </row>
     <row r="127" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="144"/>
-      <c r="G127" s="105"/>
-      <c r="H127" s="105"/>
-      <c r="I127" s="105"/>
-      <c r="J127" s="105"/>
-      <c r="K127" s="105"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="107"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="107"/>
+      <c r="F127" s="107"/>
+      <c r="G127" s="94"/>
+      <c r="H127" s="94"/>
+      <c r="I127" s="94"/>
+      <c r="J127" s="94"/>
+      <c r="K127" s="94"/>
     </row>
     <row r="128" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="144"/>
-      <c r="C128" s="144"/>
-      <c r="D128" s="144"/>
-      <c r="E128" s="144"/>
-      <c r="F128" s="144"/>
-      <c r="G128" s="105"/>
-      <c r="H128" s="105"/>
-      <c r="I128" s="105"/>
-      <c r="J128" s="105"/>
-      <c r="K128" s="105"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="107"/>
+      <c r="E128" s="107"/>
+      <c r="F128" s="107"/>
+      <c r="G128" s="94"/>
+      <c r="H128" s="94"/>
+      <c r="I128" s="94"/>
+      <c r="J128" s="94"/>
+      <c r="K128" s="94"/>
     </row>
     <row r="129" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="144"/>
-      <c r="C129" s="144"/>
-      <c r="D129" s="144"/>
-      <c r="E129" s="144"/>
-      <c r="F129" s="144"/>
-      <c r="G129" s="105"/>
-      <c r="H129" s="105"/>
-      <c r="I129" s="105"/>
-      <c r="J129" s="105"/>
-      <c r="K129" s="105"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="107"/>
+      <c r="D129" s="107"/>
+      <c r="E129" s="107"/>
+      <c r="F129" s="107"/>
+      <c r="G129" s="94"/>
+      <c r="H129" s="94"/>
+      <c r="I129" s="94"/>
+      <c r="J129" s="94"/>
+      <c r="K129" s="94"/>
     </row>
     <row r="130" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="144"/>
-      <c r="C130" s="144"/>
-      <c r="D130" s="144"/>
-      <c r="E130" s="144"/>
-      <c r="F130" s="144"/>
-      <c r="G130" s="105"/>
-      <c r="H130" s="105"/>
-      <c r="I130" s="105"/>
-      <c r="J130" s="105"/>
-      <c r="K130" s="105"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="107"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="107"/>
+      <c r="F130" s="107"/>
+      <c r="G130" s="94"/>
+      <c r="H130" s="94"/>
+      <c r="I130" s="94"/>
+      <c r="J130" s="94"/>
+      <c r="K130" s="94"/>
     </row>
     <row r="131" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="144"/>
-      <c r="C131" s="144"/>
-      <c r="D131" s="144"/>
-      <c r="E131" s="144"/>
-      <c r="F131" s="144"/>
-      <c r="G131" s="105"/>
-      <c r="H131" s="105"/>
-      <c r="I131" s="105"/>
-      <c r="J131" s="105"/>
-      <c r="K131" s="105"/>
+      <c r="B131" s="107"/>
+      <c r="C131" s="107"/>
+      <c r="D131" s="107"/>
+      <c r="E131" s="107"/>
+      <c r="F131" s="107"/>
+      <c r="G131" s="94"/>
+      <c r="H131" s="94"/>
+      <c r="I131" s="94"/>
+      <c r="J131" s="94"/>
+      <c r="K131" s="94"/>
     </row>
     <row r="132" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="144"/>
-      <c r="C132" s="144"/>
-      <c r="D132" s="144"/>
-      <c r="E132" s="144"/>
-      <c r="F132" s="144"/>
-      <c r="G132" s="105"/>
-      <c r="H132" s="105"/>
-      <c r="I132" s="105"/>
-      <c r="J132" s="105"/>
-      <c r="K132" s="105"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="107"/>
+      <c r="D132" s="107"/>
+      <c r="E132" s="107"/>
+      <c r="F132" s="107"/>
+      <c r="G132" s="94"/>
+      <c r="H132" s="94"/>
+      <c r="I132" s="94"/>
+      <c r="J132" s="94"/>
+      <c r="K132" s="94"/>
     </row>
     <row r="133" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="144"/>
-      <c r="C133" s="144"/>
-      <c r="D133" s="144"/>
-      <c r="E133" s="144"/>
-      <c r="F133" s="144"/>
-      <c r="G133" s="105"/>
-      <c r="H133" s="105"/>
-      <c r="I133" s="105"/>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="107"/>
+      <c r="D133" s="107"/>
+      <c r="E133" s="107"/>
+      <c r="F133" s="107"/>
+      <c r="G133" s="94"/>
+      <c r="H133" s="94"/>
+      <c r="I133" s="94"/>
+      <c r="J133" s="94"/>
+      <c r="K133" s="94"/>
     </row>
     <row r="134" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="144"/>
-      <c r="C134" s="144"/>
-      <c r="D134" s="144"/>
-      <c r="E134" s="144"/>
-      <c r="F134" s="144"/>
-      <c r="G134" s="105"/>
-      <c r="H134" s="105"/>
-      <c r="I134" s="105"/>
-      <c r="J134" s="105"/>
-      <c r="K134" s="105"/>
+      <c r="B134" s="107"/>
+      <c r="C134" s="107"/>
+      <c r="D134" s="107"/>
+      <c r="E134" s="107"/>
+      <c r="F134" s="107"/>
+      <c r="G134" s="94"/>
+      <c r="H134" s="94"/>
+      <c r="I134" s="94"/>
+      <c r="J134" s="94"/>
+      <c r="K134" s="94"/>
     </row>
     <row r="135" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="144"/>
-      <c r="C135" s="144"/>
-      <c r="D135" s="144"/>
-      <c r="E135" s="144"/>
-      <c r="F135" s="144"/>
-      <c r="G135" s="105"/>
-      <c r="H135" s="105"/>
-      <c r="I135" s="105"/>
-      <c r="J135" s="105"/>
-      <c r="K135" s="105"/>
+      <c r="B135" s="107"/>
+      <c r="C135" s="107"/>
+      <c r="D135" s="107"/>
+      <c r="E135" s="107"/>
+      <c r="F135" s="107"/>
+      <c r="G135" s="94"/>
+      <c r="H135" s="94"/>
+      <c r="I135" s="94"/>
+      <c r="J135" s="94"/>
+      <c r="K135" s="94"/>
     </row>
     <row r="136" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="144"/>
-      <c r="C136" s="144"/>
-      <c r="D136" s="144"/>
-      <c r="E136" s="144"/>
-      <c r="F136" s="144"/>
-      <c r="G136" s="105"/>
-      <c r="H136" s="105"/>
-      <c r="I136" s="105"/>
-      <c r="J136" s="105"/>
-      <c r="K136" s="105"/>
+      <c r="B136" s="107"/>
+      <c r="C136" s="107"/>
+      <c r="D136" s="107"/>
+      <c r="E136" s="107"/>
+      <c r="F136" s="107"/>
+      <c r="G136" s="94"/>
+      <c r="H136" s="94"/>
+      <c r="I136" s="94"/>
+      <c r="J136" s="94"/>
+      <c r="K136" s="94"/>
     </row>
     <row r="137" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="144"/>
-      <c r="C137" s="144"/>
-      <c r="D137" s="144"/>
-      <c r="E137" s="144"/>
-      <c r="F137" s="144"/>
-      <c r="G137" s="105"/>
-      <c r="H137" s="105"/>
-      <c r="I137" s="105"/>
-      <c r="J137" s="105"/>
-      <c r="K137" s="105"/>
+      <c r="B137" s="107"/>
+      <c r="C137" s="107"/>
+      <c r="D137" s="107"/>
+      <c r="E137" s="107"/>
+      <c r="F137" s="107"/>
+      <c r="G137" s="94"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="94"/>
+      <c r="J137" s="94"/>
+      <c r="K137" s="94"/>
     </row>
     <row r="138" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="144"/>
-      <c r="C138" s="144"/>
-      <c r="D138" s="144"/>
-      <c r="E138" s="144"/>
-      <c r="F138" s="144"/>
-      <c r="G138" s="105"/>
-      <c r="H138" s="105"/>
-      <c r="I138" s="105"/>
-      <c r="J138" s="105"/>
-      <c r="K138" s="105"/>
+      <c r="B138" s="107"/>
+      <c r="C138" s="107"/>
+      <c r="D138" s="107"/>
+      <c r="E138" s="107"/>
+      <c r="F138" s="107"/>
+      <c r="G138" s="94"/>
+      <c r="H138" s="94"/>
+      <c r="I138" s="94"/>
+      <c r="J138" s="94"/>
+      <c r="K138" s="94"/>
     </row>
     <row r="139" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="144"/>
-      <c r="C139" s="144"/>
-      <c r="D139" s="144"/>
-      <c r="E139" s="144"/>
-      <c r="F139" s="144"/>
-      <c r="G139" s="105"/>
-      <c r="H139" s="105"/>
-      <c r="I139" s="105"/>
-      <c r="J139" s="105"/>
-      <c r="K139" s="105"/>
+      <c r="B139" s="107"/>
+      <c r="C139" s="107"/>
+      <c r="D139" s="107"/>
+      <c r="E139" s="107"/>
+      <c r="F139" s="107"/>
+      <c r="G139" s="94"/>
+      <c r="H139" s="94"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="94"/>
+      <c r="K139" s="94"/>
     </row>
     <row r="140" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="144" t="s">
+      <c r="B140" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="C140" s="144"/>
-      <c r="D140" s="144"/>
-      <c r="E140" s="144"/>
-      <c r="F140" s="144" t="s">
+      <c r="C140" s="107"/>
+      <c r="D140" s="107"/>
+      <c r="E140" s="107"/>
+      <c r="F140" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="G140" s="105">
+      <c r="G140" s="94">
         <v>1</v>
       </c>
-      <c r="H140" s="105"/>
-      <c r="I140" s="105">
+      <c r="H140" s="94"/>
+      <c r="I140" s="94">
         <v>2</v>
       </c>
-      <c r="J140" s="105"/>
-      <c r="K140" s="105" t="s">
+      <c r="J140" s="94"/>
+      <c r="K140" s="94" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="141" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="144"/>
-      <c r="C141" s="144"/>
-      <c r="D141" s="144"/>
-      <c r="E141" s="144"/>
-      <c r="F141" s="144"/>
-      <c r="G141" s="105"/>
-      <c r="H141" s="105"/>
-      <c r="I141" s="105"/>
-      <c r="J141" s="105"/>
-      <c r="K141" s="105"/>
+      <c r="B141" s="107"/>
+      <c r="C141" s="107"/>
+      <c r="D141" s="107"/>
+      <c r="E141" s="107"/>
+      <c r="F141" s="107"/>
+      <c r="G141" s="94"/>
+      <c r="H141" s="94"/>
+      <c r="I141" s="94"/>
+      <c r="J141" s="94"/>
+      <c r="K141" s="94"/>
     </row>
     <row r="142" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="144"/>
-      <c r="C142" s="144"/>
-      <c r="D142" s="144"/>
-      <c r="E142" s="144"/>
-      <c r="F142" s="144"/>
-      <c r="G142" s="105"/>
-      <c r="H142" s="105"/>
-      <c r="I142" s="105"/>
-      <c r="J142" s="105"/>
-      <c r="K142" s="105"/>
+      <c r="B142" s="107"/>
+      <c r="C142" s="107"/>
+      <c r="D142" s="107"/>
+      <c r="E142" s="107"/>
+      <c r="F142" s="107"/>
+      <c r="G142" s="94"/>
+      <c r="H142" s="94"/>
+      <c r="I142" s="94"/>
+      <c r="J142" s="94"/>
+      <c r="K142" s="94"/>
     </row>
     <row r="143" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="144"/>
-      <c r="C143" s="144"/>
-      <c r="D143" s="144"/>
-      <c r="E143" s="144"/>
-      <c r="F143" s="144"/>
-      <c r="G143" s="105"/>
-      <c r="H143" s="105"/>
-      <c r="I143" s="105"/>
-      <c r="J143" s="105"/>
-      <c r="K143" s="105"/>
+      <c r="B143" s="107"/>
+      <c r="C143" s="107"/>
+      <c r="D143" s="107"/>
+      <c r="E143" s="107"/>
+      <c r="F143" s="107"/>
+      <c r="G143" s="94"/>
+      <c r="H143" s="94"/>
+      <c r="I143" s="94"/>
+      <c r="J143" s="94"/>
+      <c r="K143" s="94"/>
     </row>
     <row r="144" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="144"/>
-      <c r="C144" s="144"/>
-      <c r="D144" s="144"/>
-      <c r="E144" s="144"/>
-      <c r="F144" s="144"/>
-      <c r="G144" s="105"/>
-      <c r="H144" s="105"/>
-      <c r="I144" s="105"/>
-      <c r="J144" s="105"/>
-      <c r="K144" s="105"/>
+      <c r="B144" s="107"/>
+      <c r="C144" s="107"/>
+      <c r="D144" s="107"/>
+      <c r="E144" s="107"/>
+      <c r="F144" s="107"/>
+      <c r="G144" s="94"/>
+      <c r="H144" s="94"/>
+      <c r="I144" s="94"/>
+      <c r="J144" s="94"/>
+      <c r="K144" s="94"/>
     </row>
     <row r="145" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="144"/>
-      <c r="C145" s="144"/>
-      <c r="D145" s="144"/>
-      <c r="E145" s="144"/>
-      <c r="F145" s="144"/>
-      <c r="G145" s="105"/>
-      <c r="H145" s="105"/>
-      <c r="I145" s="105"/>
-      <c r="J145" s="105"/>
-      <c r="K145" s="105"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="107"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="107"/>
+      <c r="G145" s="94"/>
+      <c r="H145" s="94"/>
+      <c r="I145" s="94"/>
+      <c r="J145" s="94"/>
+      <c r="K145" s="94"/>
     </row>
     <row r="146" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="144"/>
-      <c r="C146" s="144"/>
-      <c r="D146" s="144"/>
-      <c r="E146" s="144"/>
-      <c r="F146" s="144"/>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="105"/>
-      <c r="J146" s="105"/>
-      <c r="K146" s="105"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="107"/>
+      <c r="D146" s="107"/>
+      <c r="E146" s="107"/>
+      <c r="F146" s="107"/>
+      <c r="G146" s="94"/>
+      <c r="H146" s="94"/>
+      <c r="I146" s="94"/>
+      <c r="J146" s="94"/>
+      <c r="K146" s="94"/>
     </row>
     <row r="147" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="144"/>
-      <c r="C147" s="144"/>
-      <c r="D147" s="144"/>
-      <c r="E147" s="144"/>
-      <c r="F147" s="144"/>
-      <c r="G147" s="105"/>
-      <c r="H147" s="105"/>
-      <c r="I147" s="105"/>
-      <c r="J147" s="105"/>
-      <c r="K147" s="105"/>
+      <c r="B147" s="107"/>
+      <c r="C147" s="107"/>
+      <c r="D147" s="107"/>
+      <c r="E147" s="107"/>
+      <c r="F147" s="107"/>
+      <c r="G147" s="94"/>
+      <c r="H147" s="94"/>
+      <c r="I147" s="94"/>
+      <c r="J147" s="94"/>
+      <c r="K147" s="94"/>
     </row>
     <row r="148" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="144"/>
-      <c r="C148" s="144"/>
-      <c r="D148" s="144"/>
-      <c r="E148" s="144"/>
-      <c r="F148" s="144"/>
-      <c r="G148" s="105"/>
-      <c r="H148" s="105"/>
-      <c r="I148" s="105"/>
-      <c r="J148" s="105"/>
-      <c r="K148" s="105"/>
+      <c r="B148" s="107"/>
+      <c r="C148" s="107"/>
+      <c r="D148" s="107"/>
+      <c r="E148" s="107"/>
+      <c r="F148" s="107"/>
+      <c r="G148" s="94"/>
+      <c r="H148" s="94"/>
+      <c r="I148" s="94"/>
+      <c r="J148" s="94"/>
+      <c r="K148" s="94"/>
     </row>
     <row r="149" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="144"/>
-      <c r="C149" s="144"/>
-      <c r="D149" s="144"/>
-      <c r="E149" s="144"/>
-      <c r="F149" s="144"/>
-      <c r="G149" s="105"/>
-      <c r="H149" s="105"/>
-      <c r="I149" s="105"/>
-      <c r="J149" s="105"/>
-      <c r="K149" s="105"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="107"/>
+      <c r="D149" s="107"/>
+      <c r="E149" s="107"/>
+      <c r="F149" s="107"/>
+      <c r="G149" s="94"/>
+      <c r="H149" s="94"/>
+      <c r="I149" s="94"/>
+      <c r="J149" s="94"/>
+      <c r="K149" s="94"/>
     </row>
     <row r="150" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="144"/>
-      <c r="C150" s="144"/>
-      <c r="D150" s="144"/>
-      <c r="E150" s="144"/>
-      <c r="F150" s="144"/>
-      <c r="G150" s="105"/>
-      <c r="H150" s="105"/>
-      <c r="I150" s="105"/>
-      <c r="J150" s="105"/>
-      <c r="K150" s="105"/>
+      <c r="B150" s="107"/>
+      <c r="C150" s="107"/>
+      <c r="D150" s="107"/>
+      <c r="E150" s="107"/>
+      <c r="F150" s="107"/>
+      <c r="G150" s="94"/>
+      <c r="H150" s="94"/>
+      <c r="I150" s="94"/>
+      <c r="J150" s="94"/>
+      <c r="K150" s="94"/>
     </row>
     <row r="151" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="144"/>
-      <c r="C151" s="144"/>
-      <c r="D151" s="144"/>
-      <c r="E151" s="144"/>
-      <c r="F151" s="144"/>
-      <c r="G151" s="105"/>
-      <c r="H151" s="105"/>
-      <c r="I151" s="105"/>
-      <c r="J151" s="105"/>
-      <c r="K151" s="105"/>
+      <c r="B151" s="107"/>
+      <c r="C151" s="107"/>
+      <c r="D151" s="107"/>
+      <c r="E151" s="107"/>
+      <c r="F151" s="107"/>
+      <c r="G151" s="94"/>
+      <c r="H151" s="94"/>
+      <c r="I151" s="94"/>
+      <c r="J151" s="94"/>
+      <c r="K151" s="94"/>
     </row>
     <row r="152" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="144"/>
-      <c r="C152" s="144"/>
-      <c r="D152" s="144"/>
-      <c r="E152" s="144"/>
-      <c r="F152" s="144"/>
-      <c r="G152" s="105"/>
-      <c r="H152" s="105"/>
-      <c r="I152" s="105"/>
-      <c r="J152" s="105"/>
-      <c r="K152" s="105"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="107"/>
+      <c r="D152" s="107"/>
+      <c r="E152" s="107"/>
+      <c r="F152" s="107"/>
+      <c r="G152" s="94"/>
+      <c r="H152" s="94"/>
+      <c r="I152" s="94"/>
+      <c r="J152" s="94"/>
+      <c r="K152" s="94"/>
     </row>
     <row r="153" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="144"/>
-      <c r="C153" s="144"/>
-      <c r="D153" s="144"/>
-      <c r="E153" s="144"/>
-      <c r="F153" s="144"/>
-      <c r="G153" s="105"/>
-      <c r="H153" s="105"/>
-      <c r="I153" s="105"/>
-      <c r="J153" s="105"/>
-      <c r="K153" s="105"/>
+      <c r="B153" s="107"/>
+      <c r="C153" s="107"/>
+      <c r="D153" s="107"/>
+      <c r="E153" s="107"/>
+      <c r="F153" s="107"/>
+      <c r="G153" s="94"/>
+      <c r="H153" s="94"/>
+      <c r="I153" s="94"/>
+      <c r="J153" s="94"/>
+      <c r="K153" s="94"/>
     </row>
     <row r="154" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="144"/>
-      <c r="C154" s="144"/>
-      <c r="D154" s="144"/>
-      <c r="E154" s="144"/>
-      <c r="F154" s="144"/>
-      <c r="G154" s="105"/>
-      <c r="H154" s="105"/>
-      <c r="I154" s="105"/>
-      <c r="J154" s="105"/>
-      <c r="K154" s="105"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="107"/>
+      <c r="D154" s="107"/>
+      <c r="E154" s="107"/>
+      <c r="F154" s="107"/>
+      <c r="G154" s="94"/>
+      <c r="H154" s="94"/>
+      <c r="I154" s="94"/>
+      <c r="J154" s="94"/>
+      <c r="K154" s="94"/>
     </row>
     <row r="155" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="134" t="s">
+      <c r="B155" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="C155" s="135"/>
-      <c r="D155" s="135"/>
-      <c r="E155" s="136"/>
-      <c r="F155" s="149" t="s">
+      <c r="C155" s="132"/>
+      <c r="D155" s="132"/>
+      <c r="E155" s="133"/>
+      <c r="F155" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="G155" s="119">
+      <c r="G155" s="120">
         <v>1</v>
       </c>
-      <c r="H155" s="120"/>
-      <c r="I155" s="119">
+      <c r="H155" s="121"/>
+      <c r="I155" s="120">
         <v>2</v>
       </c>
-      <c r="J155" s="120"/>
-      <c r="K155" s="116" t="s">
+      <c r="J155" s="121"/>
+      <c r="K155" s="126" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="156" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="137"/>
-      <c r="C156" s="138"/>
-      <c r="D156" s="138"/>
-      <c r="E156" s="139"/>
-      <c r="F156" s="150"/>
-      <c r="G156" s="121"/>
-      <c r="H156" s="122"/>
-      <c r="I156" s="121"/>
-      <c r="J156" s="122"/>
-      <c r="K156" s="117"/>
+      <c r="B156" s="134"/>
+      <c r="C156" s="135"/>
+      <c r="D156" s="135"/>
+      <c r="E156" s="136"/>
+      <c r="F156" s="144"/>
+      <c r="G156" s="122"/>
+      <c r="H156" s="123"/>
+      <c r="I156" s="122"/>
+      <c r="J156" s="123"/>
+      <c r="K156" s="127"/>
     </row>
     <row r="157" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="137"/>
-      <c r="C157" s="138"/>
-      <c r="D157" s="138"/>
-      <c r="E157" s="139"/>
-      <c r="F157" s="150"/>
-      <c r="G157" s="121"/>
-      <c r="H157" s="122"/>
-      <c r="I157" s="121"/>
-      <c r="J157" s="122"/>
-      <c r="K157" s="117"/>
+      <c r="B157" s="134"/>
+      <c r="C157" s="135"/>
+      <c r="D157" s="135"/>
+      <c r="E157" s="136"/>
+      <c r="F157" s="144"/>
+      <c r="G157" s="122"/>
+      <c r="H157" s="123"/>
+      <c r="I157" s="122"/>
+      <c r="J157" s="123"/>
+      <c r="K157" s="127"/>
     </row>
     <row r="158" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="137"/>
-      <c r="C158" s="138"/>
-      <c r="D158" s="138"/>
-      <c r="E158" s="139"/>
-      <c r="F158" s="150"/>
-      <c r="G158" s="121"/>
-      <c r="H158" s="122"/>
-      <c r="I158" s="121"/>
-      <c r="J158" s="122"/>
-      <c r="K158" s="117"/>
+      <c r="B158" s="134"/>
+      <c r="C158" s="135"/>
+      <c r="D158" s="135"/>
+      <c r="E158" s="136"/>
+      <c r="F158" s="144"/>
+      <c r="G158" s="122"/>
+      <c r="H158" s="123"/>
+      <c r="I158" s="122"/>
+      <c r="J158" s="123"/>
+      <c r="K158" s="127"/>
     </row>
     <row r="159" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="137"/>
-      <c r="C159" s="138"/>
-      <c r="D159" s="138"/>
-      <c r="E159" s="139"/>
-      <c r="F159" s="150"/>
-      <c r="G159" s="121"/>
-      <c r="H159" s="122"/>
-      <c r="I159" s="121"/>
-      <c r="J159" s="122"/>
-      <c r="K159" s="117"/>
+      <c r="B159" s="134"/>
+      <c r="C159" s="135"/>
+      <c r="D159" s="135"/>
+      <c r="E159" s="136"/>
+      <c r="F159" s="144"/>
+      <c r="G159" s="122"/>
+      <c r="H159" s="123"/>
+      <c r="I159" s="122"/>
+      <c r="J159" s="123"/>
+      <c r="K159" s="127"/>
     </row>
     <row r="160" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="137"/>
-      <c r="C160" s="138"/>
-      <c r="D160" s="138"/>
-      <c r="E160" s="139"/>
-      <c r="F160" s="150"/>
-      <c r="G160" s="121"/>
-      <c r="H160" s="122"/>
-      <c r="I160" s="121"/>
-      <c r="J160" s="122"/>
-      <c r="K160" s="117"/>
+      <c r="B160" s="134"/>
+      <c r="C160" s="135"/>
+      <c r="D160" s="135"/>
+      <c r="E160" s="136"/>
+      <c r="F160" s="144"/>
+      <c r="G160" s="122"/>
+      <c r="H160" s="123"/>
+      <c r="I160" s="122"/>
+      <c r="J160" s="123"/>
+      <c r="K160" s="127"/>
     </row>
     <row r="161" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="137"/>
-      <c r="C161" s="138"/>
-      <c r="D161" s="138"/>
-      <c r="E161" s="139"/>
-      <c r="F161" s="150"/>
-      <c r="G161" s="121"/>
-      <c r="H161" s="122"/>
-      <c r="I161" s="121"/>
-      <c r="J161" s="122"/>
-      <c r="K161" s="117"/>
+      <c r="B161" s="134"/>
+      <c r="C161" s="135"/>
+      <c r="D161" s="135"/>
+      <c r="E161" s="136"/>
+      <c r="F161" s="144"/>
+      <c r="G161" s="122"/>
+      <c r="H161" s="123"/>
+      <c r="I161" s="122"/>
+      <c r="J161" s="123"/>
+      <c r="K161" s="127"/>
     </row>
     <row r="162" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="137"/>
-      <c r="C162" s="138"/>
-      <c r="D162" s="138"/>
-      <c r="E162" s="139"/>
-      <c r="F162" s="150"/>
-      <c r="G162" s="121"/>
-      <c r="H162" s="122"/>
-      <c r="I162" s="121"/>
-      <c r="J162" s="122"/>
-      <c r="K162" s="117"/>
+      <c r="B162" s="134"/>
+      <c r="C162" s="135"/>
+      <c r="D162" s="135"/>
+      <c r="E162" s="136"/>
+      <c r="F162" s="144"/>
+      <c r="G162" s="122"/>
+      <c r="H162" s="123"/>
+      <c r="I162" s="122"/>
+      <c r="J162" s="123"/>
+      <c r="K162" s="127"/>
     </row>
     <row r="163" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="137"/>
-      <c r="C163" s="138"/>
-      <c r="D163" s="138"/>
-      <c r="E163" s="139"/>
-      <c r="F163" s="150"/>
-      <c r="G163" s="121"/>
-      <c r="H163" s="122"/>
-      <c r="I163" s="121"/>
-      <c r="J163" s="122"/>
-      <c r="K163" s="117"/>
+      <c r="B163" s="134"/>
+      <c r="C163" s="135"/>
+      <c r="D163" s="135"/>
+      <c r="E163" s="136"/>
+      <c r="F163" s="144"/>
+      <c r="G163" s="122"/>
+      <c r="H163" s="123"/>
+      <c r="I163" s="122"/>
+      <c r="J163" s="123"/>
+      <c r="K163" s="127"/>
     </row>
     <row r="164" spans="2:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="137"/>
-      <c r="C164" s="138"/>
-      <c r="D164" s="138"/>
-      <c r="E164" s="139"/>
-      <c r="F164" s="150"/>
-      <c r="G164" s="121"/>
-      <c r="H164" s="122"/>
-      <c r="I164" s="121"/>
-      <c r="J164" s="122"/>
-      <c r="K164" s="117"/>
+      <c r="B164" s="134"/>
+      <c r="C164" s="135"/>
+      <c r="D164" s="135"/>
+      <c r="E164" s="136"/>
+      <c r="F164" s="144"/>
+      <c r="G164" s="122"/>
+      <c r="H164" s="123"/>
+      <c r="I164" s="122"/>
+      <c r="J164" s="123"/>
+      <c r="K164" s="127"/>
     </row>
     <row r="165" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="140"/>
-      <c r="C165" s="141"/>
-      <c r="D165" s="141"/>
-      <c r="E165" s="142"/>
-      <c r="F165" s="151"/>
-      <c r="G165" s="123"/>
-      <c r="H165" s="124"/>
-      <c r="I165" s="123"/>
-      <c r="J165" s="124"/>
-      <c r="K165" s="118"/>
+      <c r="B165" s="137"/>
+      <c r="C165" s="138"/>
+      <c r="D165" s="138"/>
+      <c r="E165" s="139"/>
+      <c r="F165" s="145"/>
+      <c r="G165" s="124"/>
+      <c r="H165" s="125"/>
+      <c r="I165" s="124"/>
+      <c r="J165" s="125"/>
+      <c r="K165" s="128"/>
     </row>
     <row r="166" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="134" t="s">
+      <c r="B166" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="C166" s="135"/>
-      <c r="D166" s="135"/>
-      <c r="E166" s="136"/>
-      <c r="F166" s="125" t="s">
+      <c r="C166" s="132"/>
+      <c r="D166" s="132"/>
+      <c r="E166" s="133"/>
+      <c r="F166" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="G166" s="128" t="s">
+      <c r="G166" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="H166" s="129"/>
-      <c r="I166" s="128" t="s">
+      <c r="H166" s="148"/>
+      <c r="I166" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="J166" s="129"/>
-      <c r="K166" s="116" t="s">
+      <c r="J166" s="148"/>
+      <c r="K166" s="126" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="137"/>
-      <c r="C167" s="138"/>
-      <c r="D167" s="138"/>
-      <c r="E167" s="139"/>
-      <c r="F167" s="126"/>
-      <c r="G167" s="130"/>
-      <c r="H167" s="131"/>
-      <c r="I167" s="130"/>
-      <c r="J167" s="131"/>
-      <c r="K167" s="117"/>
+      <c r="B167" s="134"/>
+      <c r="C167" s="135"/>
+      <c r="D167" s="135"/>
+      <c r="E167" s="136"/>
+      <c r="F167" s="118"/>
+      <c r="G167" s="149"/>
+      <c r="H167" s="150"/>
+      <c r="I167" s="149"/>
+      <c r="J167" s="150"/>
+      <c r="K167" s="127"/>
     </row>
     <row r="168" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="137"/>
-      <c r="C168" s="138"/>
-      <c r="D168" s="138"/>
-      <c r="E168" s="139"/>
-      <c r="F168" s="126"/>
-      <c r="G168" s="130"/>
-      <c r="H168" s="131"/>
-      <c r="I168" s="130"/>
-      <c r="J168" s="131"/>
-      <c r="K168" s="117"/>
+      <c r="B168" s="134"/>
+      <c r="C168" s="135"/>
+      <c r="D168" s="135"/>
+      <c r="E168" s="136"/>
+      <c r="F168" s="118"/>
+      <c r="G168" s="149"/>
+      <c r="H168" s="150"/>
+      <c r="I168" s="149"/>
+      <c r="J168" s="150"/>
+      <c r="K168" s="127"/>
     </row>
     <row r="169" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="137"/>
-      <c r="C169" s="138"/>
-      <c r="D169" s="138"/>
-      <c r="E169" s="139"/>
-      <c r="F169" s="126"/>
-      <c r="G169" s="130"/>
-      <c r="H169" s="131"/>
-      <c r="I169" s="130"/>
-      <c r="J169" s="131"/>
-      <c r="K169" s="117"/>
+      <c r="B169" s="134"/>
+      <c r="C169" s="135"/>
+      <c r="D169" s="135"/>
+      <c r="E169" s="136"/>
+      <c r="F169" s="118"/>
+      <c r="G169" s="149"/>
+      <c r="H169" s="150"/>
+      <c r="I169" s="149"/>
+      <c r="J169" s="150"/>
+      <c r="K169" s="127"/>
     </row>
     <row r="170" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="137"/>
-      <c r="C170" s="138"/>
-      <c r="D170" s="138"/>
-      <c r="E170" s="139"/>
-      <c r="F170" s="126"/>
-      <c r="G170" s="130"/>
-      <c r="H170" s="131"/>
-      <c r="I170" s="130"/>
-      <c r="J170" s="131"/>
-      <c r="K170" s="117"/>
+      <c r="B170" s="134"/>
+      <c r="C170" s="135"/>
+      <c r="D170" s="135"/>
+      <c r="E170" s="136"/>
+      <c r="F170" s="118"/>
+      <c r="G170" s="149"/>
+      <c r="H170" s="150"/>
+      <c r="I170" s="149"/>
+      <c r="J170" s="150"/>
+      <c r="K170" s="127"/>
     </row>
     <row r="171" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="137"/>
-      <c r="C171" s="138"/>
-      <c r="D171" s="138"/>
-      <c r="E171" s="139"/>
-      <c r="F171" s="126"/>
-      <c r="G171" s="130"/>
-      <c r="H171" s="131"/>
-      <c r="I171" s="130"/>
-      <c r="J171" s="131"/>
-      <c r="K171" s="117"/>
+      <c r="B171" s="134"/>
+      <c r="C171" s="135"/>
+      <c r="D171" s="135"/>
+      <c r="E171" s="136"/>
+      <c r="F171" s="118"/>
+      <c r="G171" s="149"/>
+      <c r="H171" s="150"/>
+      <c r="I171" s="149"/>
+      <c r="J171" s="150"/>
+      <c r="K171" s="127"/>
     </row>
     <row r="172" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="137"/>
-      <c r="C172" s="138"/>
-      <c r="D172" s="138"/>
-      <c r="E172" s="139"/>
-      <c r="F172" s="126"/>
-      <c r="G172" s="130"/>
-      <c r="H172" s="131"/>
-      <c r="I172" s="130"/>
-      <c r="J172" s="131"/>
-      <c r="K172" s="117"/>
+      <c r="B172" s="134"/>
+      <c r="C172" s="135"/>
+      <c r="D172" s="135"/>
+      <c r="E172" s="136"/>
+      <c r="F172" s="118"/>
+      <c r="G172" s="149"/>
+      <c r="H172" s="150"/>
+      <c r="I172" s="149"/>
+      <c r="J172" s="150"/>
+      <c r="K172" s="127"/>
     </row>
     <row r="173" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="137"/>
-      <c r="C173" s="138"/>
-      <c r="D173" s="138"/>
-      <c r="E173" s="139"/>
-      <c r="F173" s="126"/>
-      <c r="G173" s="130"/>
-      <c r="H173" s="131"/>
-      <c r="I173" s="130"/>
-      <c r="J173" s="131"/>
-      <c r="K173" s="117"/>
+      <c r="B173" s="134"/>
+      <c r="C173" s="135"/>
+      <c r="D173" s="135"/>
+      <c r="E173" s="136"/>
+      <c r="F173" s="118"/>
+      <c r="G173" s="149"/>
+      <c r="H173" s="150"/>
+      <c r="I173" s="149"/>
+      <c r="J173" s="150"/>
+      <c r="K173" s="127"/>
     </row>
     <row r="174" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="137"/>
-      <c r="C174" s="138"/>
-      <c r="D174" s="138"/>
-      <c r="E174" s="139"/>
-      <c r="F174" s="126"/>
-      <c r="G174" s="130"/>
-      <c r="H174" s="131"/>
-      <c r="I174" s="130"/>
-      <c r="J174" s="131"/>
-      <c r="K174" s="117"/>
+      <c r="B174" s="134"/>
+      <c r="C174" s="135"/>
+      <c r="D174" s="135"/>
+      <c r="E174" s="136"/>
+      <c r="F174" s="118"/>
+      <c r="G174" s="149"/>
+      <c r="H174" s="150"/>
+      <c r="I174" s="149"/>
+      <c r="J174" s="150"/>
+      <c r="K174" s="127"/>
     </row>
     <row r="175" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="137"/>
-      <c r="C175" s="138"/>
-      <c r="D175" s="138"/>
-      <c r="E175" s="139"/>
-      <c r="F175" s="126"/>
-      <c r="G175" s="130"/>
-      <c r="H175" s="131"/>
-      <c r="I175" s="130"/>
-      <c r="J175" s="131"/>
-      <c r="K175" s="117"/>
+      <c r="B175" s="134"/>
+      <c r="C175" s="135"/>
+      <c r="D175" s="135"/>
+      <c r="E175" s="136"/>
+      <c r="F175" s="118"/>
+      <c r="G175" s="149"/>
+      <c r="H175" s="150"/>
+      <c r="I175" s="149"/>
+      <c r="J175" s="150"/>
+      <c r="K175" s="127"/>
     </row>
     <row r="176" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="137"/>
-      <c r="C176" s="138"/>
-      <c r="D176" s="138"/>
-      <c r="E176" s="139"/>
-      <c r="F176" s="126"/>
-      <c r="G176" s="130"/>
-      <c r="H176" s="131"/>
-      <c r="I176" s="130"/>
-      <c r="J176" s="131"/>
-      <c r="K176" s="117"/>
+      <c r="B176" s="134"/>
+      <c r="C176" s="135"/>
+      <c r="D176" s="135"/>
+      <c r="E176" s="136"/>
+      <c r="F176" s="118"/>
+      <c r="G176" s="149"/>
+      <c r="H176" s="150"/>
+      <c r="I176" s="149"/>
+      <c r="J176" s="150"/>
+      <c r="K176" s="127"/>
     </row>
     <row r="177" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="137"/>
-      <c r="C177" s="138"/>
-      <c r="D177" s="138"/>
-      <c r="E177" s="139"/>
-      <c r="F177" s="126"/>
-      <c r="G177" s="130"/>
-      <c r="H177" s="131"/>
-      <c r="I177" s="130"/>
-      <c r="J177" s="131"/>
-      <c r="K177" s="117"/>
+      <c r="B177" s="134"/>
+      <c r="C177" s="135"/>
+      <c r="D177" s="135"/>
+      <c r="E177" s="136"/>
+      <c r="F177" s="118"/>
+      <c r="G177" s="149"/>
+      <c r="H177" s="150"/>
+      <c r="I177" s="149"/>
+      <c r="J177" s="150"/>
+      <c r="K177" s="127"/>
     </row>
     <row r="178" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="137"/>
-      <c r="C178" s="138"/>
-      <c r="D178" s="138"/>
-      <c r="E178" s="139"/>
-      <c r="F178" s="126"/>
-      <c r="G178" s="130"/>
-      <c r="H178" s="131"/>
-      <c r="I178" s="130"/>
-      <c r="J178" s="131"/>
-      <c r="K178" s="117"/>
+      <c r="B178" s="134"/>
+      <c r="C178" s="135"/>
+      <c r="D178" s="135"/>
+      <c r="E178" s="136"/>
+      <c r="F178" s="118"/>
+      <c r="G178" s="149"/>
+      <c r="H178" s="150"/>
+      <c r="I178" s="149"/>
+      <c r="J178" s="150"/>
+      <c r="K178" s="127"/>
     </row>
     <row r="179" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="137"/>
-      <c r="C179" s="138"/>
-      <c r="D179" s="138"/>
-      <c r="E179" s="139"/>
-      <c r="F179" s="126"/>
-      <c r="G179" s="130"/>
-      <c r="H179" s="131"/>
-      <c r="I179" s="130"/>
-      <c r="J179" s="131"/>
-      <c r="K179" s="117"/>
+      <c r="B179" s="134"/>
+      <c r="C179" s="135"/>
+      <c r="D179" s="135"/>
+      <c r="E179" s="136"/>
+      <c r="F179" s="118"/>
+      <c r="G179" s="149"/>
+      <c r="H179" s="150"/>
+      <c r="I179" s="149"/>
+      <c r="J179" s="150"/>
+      <c r="K179" s="127"/>
     </row>
     <row r="180" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="137"/>
-      <c r="C180" s="138"/>
-      <c r="D180" s="138"/>
-      <c r="E180" s="139"/>
-      <c r="F180" s="126"/>
-      <c r="G180" s="130"/>
-      <c r="H180" s="131"/>
-      <c r="I180" s="130"/>
-      <c r="J180" s="131"/>
-      <c r="K180" s="117"/>
+      <c r="B180" s="134"/>
+      <c r="C180" s="135"/>
+      <c r="D180" s="135"/>
+      <c r="E180" s="136"/>
+      <c r="F180" s="118"/>
+      <c r="G180" s="149"/>
+      <c r="H180" s="150"/>
+      <c r="I180" s="149"/>
+      <c r="J180" s="150"/>
+      <c r="K180" s="127"/>
     </row>
     <row r="181" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="137"/>
-      <c r="C181" s="138"/>
-      <c r="D181" s="138"/>
-      <c r="E181" s="139"/>
-      <c r="F181" s="126"/>
-      <c r="G181" s="130"/>
-      <c r="H181" s="131"/>
-      <c r="I181" s="130"/>
-      <c r="J181" s="131"/>
-      <c r="K181" s="117"/>
+      <c r="B181" s="134"/>
+      <c r="C181" s="135"/>
+      <c r="D181" s="135"/>
+      <c r="E181" s="136"/>
+      <c r="F181" s="118"/>
+      <c r="G181" s="149"/>
+      <c r="H181" s="150"/>
+      <c r="I181" s="149"/>
+      <c r="J181" s="150"/>
+      <c r="K181" s="127"/>
     </row>
     <row r="182" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="137"/>
-      <c r="C182" s="138"/>
-      <c r="D182" s="138"/>
-      <c r="E182" s="139"/>
-      <c r="F182" s="126"/>
-      <c r="G182" s="130"/>
-      <c r="H182" s="131"/>
-      <c r="I182" s="130"/>
-      <c r="J182" s="131"/>
-      <c r="K182" s="117"/>
+      <c r="B182" s="134"/>
+      <c r="C182" s="135"/>
+      <c r="D182" s="135"/>
+      <c r="E182" s="136"/>
+      <c r="F182" s="118"/>
+      <c r="G182" s="149"/>
+      <c r="H182" s="150"/>
+      <c r="I182" s="149"/>
+      <c r="J182" s="150"/>
+      <c r="K182" s="127"/>
     </row>
     <row r="183" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="137"/>
-      <c r="C183" s="138"/>
-      <c r="D183" s="138"/>
-      <c r="E183" s="139"/>
-      <c r="F183" s="126"/>
-      <c r="G183" s="130"/>
-      <c r="H183" s="131"/>
-      <c r="I183" s="130"/>
-      <c r="J183" s="131"/>
-      <c r="K183" s="117"/>
+      <c r="B183" s="134"/>
+      <c r="C183" s="135"/>
+      <c r="D183" s="135"/>
+      <c r="E183" s="136"/>
+      <c r="F183" s="118"/>
+      <c r="G183" s="149"/>
+      <c r="H183" s="150"/>
+      <c r="I183" s="149"/>
+      <c r="J183" s="150"/>
+      <c r="K183" s="127"/>
     </row>
     <row r="184" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="137"/>
-      <c r="C184" s="138"/>
-      <c r="D184" s="138"/>
-      <c r="E184" s="139"/>
-      <c r="F184" s="126"/>
-      <c r="G184" s="130"/>
-      <c r="H184" s="131"/>
-      <c r="I184" s="130"/>
-      <c r="J184" s="131"/>
-      <c r="K184" s="117"/>
+      <c r="B184" s="134"/>
+      <c r="C184" s="135"/>
+      <c r="D184" s="135"/>
+      <c r="E184" s="136"/>
+      <c r="F184" s="118"/>
+      <c r="G184" s="149"/>
+      <c r="H184" s="150"/>
+      <c r="I184" s="149"/>
+      <c r="J184" s="150"/>
+      <c r="K184" s="127"/>
     </row>
     <row r="185" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="137"/>
-      <c r="C185" s="138"/>
-      <c r="D185" s="138"/>
-      <c r="E185" s="139"/>
-      <c r="F185" s="126"/>
-      <c r="G185" s="130"/>
-      <c r="H185" s="131"/>
-      <c r="I185" s="130"/>
-      <c r="J185" s="131"/>
-      <c r="K185" s="117"/>
+      <c r="B185" s="134"/>
+      <c r="C185" s="135"/>
+      <c r="D185" s="135"/>
+      <c r="E185" s="136"/>
+      <c r="F185" s="118"/>
+      <c r="G185" s="149"/>
+      <c r="H185" s="150"/>
+      <c r="I185" s="149"/>
+      <c r="J185" s="150"/>
+      <c r="K185" s="127"/>
     </row>
     <row r="186" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="137"/>
-      <c r="C186" s="138"/>
-      <c r="D186" s="138"/>
-      <c r="E186" s="139"/>
-      <c r="F186" s="126"/>
-      <c r="G186" s="130"/>
-      <c r="H186" s="131"/>
-      <c r="I186" s="130"/>
-      <c r="J186" s="131"/>
-      <c r="K186" s="117"/>
+      <c r="B186" s="134"/>
+      <c r="C186" s="135"/>
+      <c r="D186" s="135"/>
+      <c r="E186" s="136"/>
+      <c r="F186" s="118"/>
+      <c r="G186" s="149"/>
+      <c r="H186" s="150"/>
+      <c r="I186" s="149"/>
+      <c r="J186" s="150"/>
+      <c r="K186" s="127"/>
     </row>
     <row r="187" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="137"/>
-      <c r="C187" s="138"/>
-      <c r="D187" s="138"/>
-      <c r="E187" s="139"/>
-      <c r="F187" s="126"/>
-      <c r="G187" s="130"/>
-      <c r="H187" s="131"/>
-      <c r="I187" s="130"/>
-      <c r="J187" s="131"/>
-      <c r="K187" s="117"/>
+      <c r="B187" s="134"/>
+      <c r="C187" s="135"/>
+      <c r="D187" s="135"/>
+      <c r="E187" s="136"/>
+      <c r="F187" s="118"/>
+      <c r="G187" s="149"/>
+      <c r="H187" s="150"/>
+      <c r="I187" s="149"/>
+      <c r="J187" s="150"/>
+      <c r="K187" s="127"/>
     </row>
     <row r="188" spans="2:11" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="137"/>
-      <c r="C188" s="138"/>
-      <c r="D188" s="138"/>
-      <c r="E188" s="139"/>
-      <c r="F188" s="126"/>
-      <c r="G188" s="130"/>
-      <c r="H188" s="131"/>
-      <c r="I188" s="130"/>
-      <c r="J188" s="131"/>
-      <c r="K188" s="117"/>
+      <c r="B188" s="134"/>
+      <c r="C188" s="135"/>
+      <c r="D188" s="135"/>
+      <c r="E188" s="136"/>
+      <c r="F188" s="118"/>
+      <c r="G188" s="149"/>
+      <c r="H188" s="150"/>
+      <c r="I188" s="149"/>
+      <c r="J188" s="150"/>
+      <c r="K188" s="127"/>
     </row>
     <row r="189" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="140"/>
-      <c r="C189" s="141"/>
-      <c r="D189" s="141"/>
-      <c r="E189" s="142"/>
-      <c r="F189" s="127"/>
-      <c r="G189" s="132"/>
-      <c r="H189" s="133"/>
-      <c r="I189" s="132"/>
-      <c r="J189" s="133"/>
-      <c r="K189" s="118"/>
+      <c r="B189" s="137"/>
+      <c r="C189" s="138"/>
+      <c r="D189" s="138"/>
+      <c r="E189" s="139"/>
+      <c r="F189" s="119"/>
+      <c r="G189" s="151"/>
+      <c r="H189" s="152"/>
+      <c r="I189" s="151"/>
+      <c r="J189" s="152"/>
+      <c r="K189" s="128"/>
     </row>
     <row r="190" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="134" t="s">
+      <c r="B190" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="C190" s="135"/>
-      <c r="D190" s="135"/>
-      <c r="E190" s="136"/>
-      <c r="F190" s="125" t="s">
+      <c r="C190" s="132"/>
+      <c r="D190" s="132"/>
+      <c r="E190" s="133"/>
+      <c r="F190" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="G190" s="128" t="s">
+      <c r="G190" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="H190" s="129"/>
-      <c r="I190" s="128" t="s">
+      <c r="H190" s="148"/>
+      <c r="I190" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="J190" s="129"/>
-      <c r="K190" s="116" t="s">
+      <c r="J190" s="148"/>
+      <c r="K190" s="126" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="191" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="137"/>
-      <c r="C191" s="138"/>
-      <c r="D191" s="138"/>
-      <c r="E191" s="139"/>
-      <c r="F191" s="126"/>
-      <c r="G191" s="130"/>
-      <c r="H191" s="131"/>
-      <c r="I191" s="130"/>
-      <c r="J191" s="131"/>
-      <c r="K191" s="117"/>
+      <c r="B191" s="134"/>
+      <c r="C191" s="135"/>
+      <c r="D191" s="135"/>
+      <c r="E191" s="136"/>
+      <c r="F191" s="118"/>
+      <c r="G191" s="149"/>
+      <c r="H191" s="150"/>
+      <c r="I191" s="149"/>
+      <c r="J191" s="150"/>
+      <c r="K191" s="127"/>
     </row>
     <row r="192" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="137"/>
-      <c r="C192" s="138"/>
-      <c r="D192" s="138"/>
-      <c r="E192" s="139"/>
-      <c r="F192" s="126"/>
-      <c r="G192" s="130"/>
-      <c r="H192" s="131"/>
-      <c r="I192" s="130"/>
-      <c r="J192" s="131"/>
-      <c r="K192" s="117"/>
+      <c r="B192" s="134"/>
+      <c r="C192" s="135"/>
+      <c r="D192" s="135"/>
+      <c r="E192" s="136"/>
+      <c r="F192" s="118"/>
+      <c r="G192" s="149"/>
+      <c r="H192" s="150"/>
+      <c r="I192" s="149"/>
+      <c r="J192" s="150"/>
+      <c r="K192" s="127"/>
     </row>
     <row r="193" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="137"/>
-      <c r="C193" s="138"/>
-      <c r="D193" s="138"/>
-      <c r="E193" s="139"/>
-      <c r="F193" s="126"/>
-      <c r="G193" s="130"/>
-      <c r="H193" s="131"/>
-      <c r="I193" s="130"/>
-      <c r="J193" s="131"/>
-      <c r="K193" s="117"/>
+      <c r="B193" s="134"/>
+      <c r="C193" s="135"/>
+      <c r="D193" s="135"/>
+      <c r="E193" s="136"/>
+      <c r="F193" s="118"/>
+      <c r="G193" s="149"/>
+      <c r="H193" s="150"/>
+      <c r="I193" s="149"/>
+      <c r="J193" s="150"/>
+      <c r="K193" s="127"/>
     </row>
     <row r="194" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="137"/>
-      <c r="C194" s="138"/>
-      <c r="D194" s="138"/>
-      <c r="E194" s="139"/>
-      <c r="F194" s="126"/>
-      <c r="G194" s="130"/>
-      <c r="H194" s="131"/>
-      <c r="I194" s="130"/>
-      <c r="J194" s="131"/>
-      <c r="K194" s="117"/>
+      <c r="B194" s="134"/>
+      <c r="C194" s="135"/>
+      <c r="D194" s="135"/>
+      <c r="E194" s="136"/>
+      <c r="F194" s="118"/>
+      <c r="G194" s="149"/>
+      <c r="H194" s="150"/>
+      <c r="I194" s="149"/>
+      <c r="J194" s="150"/>
+      <c r="K194" s="127"/>
     </row>
     <row r="195" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="137"/>
-      <c r="C195" s="138"/>
-      <c r="D195" s="138"/>
-      <c r="E195" s="139"/>
-      <c r="F195" s="126"/>
-      <c r="G195" s="130"/>
-      <c r="H195" s="131"/>
-      <c r="I195" s="130"/>
-      <c r="J195" s="131"/>
-      <c r="K195" s="117"/>
+      <c r="B195" s="134"/>
+      <c r="C195" s="135"/>
+      <c r="D195" s="135"/>
+      <c r="E195" s="136"/>
+      <c r="F195" s="118"/>
+      <c r="G195" s="149"/>
+      <c r="H195" s="150"/>
+      <c r="I195" s="149"/>
+      <c r="J195" s="150"/>
+      <c r="K195" s="127"/>
     </row>
     <row r="196" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="137"/>
-      <c r="C196" s="138"/>
-      <c r="D196" s="138"/>
-      <c r="E196" s="139"/>
-      <c r="F196" s="126"/>
-      <c r="G196" s="130"/>
-      <c r="H196" s="131"/>
-      <c r="I196" s="130"/>
-      <c r="J196" s="131"/>
-      <c r="K196" s="117"/>
+      <c r="B196" s="134"/>
+      <c r="C196" s="135"/>
+      <c r="D196" s="135"/>
+      <c r="E196" s="136"/>
+      <c r="F196" s="118"/>
+      <c r="G196" s="149"/>
+      <c r="H196" s="150"/>
+      <c r="I196" s="149"/>
+      <c r="J196" s="150"/>
+      <c r="K196" s="127"/>
     </row>
     <row r="197" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="137"/>
-      <c r="C197" s="138"/>
-      <c r="D197" s="138"/>
-      <c r="E197" s="139"/>
-      <c r="F197" s="126"/>
-      <c r="G197" s="130"/>
-      <c r="H197" s="131"/>
-      <c r="I197" s="130"/>
-      <c r="J197" s="131"/>
-      <c r="K197" s="117"/>
+      <c r="B197" s="134"/>
+      <c r="C197" s="135"/>
+      <c r="D197" s="135"/>
+      <c r="E197" s="136"/>
+      <c r="F197" s="118"/>
+      <c r="G197" s="149"/>
+      <c r="H197" s="150"/>
+      <c r="I197" s="149"/>
+      <c r="J197" s="150"/>
+      <c r="K197" s="127"/>
     </row>
     <row r="198" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="137"/>
-      <c r="C198" s="138"/>
-      <c r="D198" s="138"/>
-      <c r="E198" s="139"/>
-      <c r="F198" s="126"/>
-      <c r="G198" s="130"/>
-      <c r="H198" s="131"/>
-      <c r="I198" s="130"/>
-      <c r="J198" s="131"/>
-      <c r="K198" s="117"/>
+      <c r="B198" s="134"/>
+      <c r="C198" s="135"/>
+      <c r="D198" s="135"/>
+      <c r="E198" s="136"/>
+      <c r="F198" s="118"/>
+      <c r="G198" s="149"/>
+      <c r="H198" s="150"/>
+      <c r="I198" s="149"/>
+      <c r="J198" s="150"/>
+      <c r="K198" s="127"/>
     </row>
     <row r="199" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="137"/>
-      <c r="C199" s="138"/>
-      <c r="D199" s="138"/>
-      <c r="E199" s="139"/>
-      <c r="F199" s="126"/>
-      <c r="G199" s="130"/>
-      <c r="H199" s="131"/>
-      <c r="I199" s="130"/>
-      <c r="J199" s="131"/>
-      <c r="K199" s="117"/>
+      <c r="B199" s="134"/>
+      <c r="C199" s="135"/>
+      <c r="D199" s="135"/>
+      <c r="E199" s="136"/>
+      <c r="F199" s="118"/>
+      <c r="G199" s="149"/>
+      <c r="H199" s="150"/>
+      <c r="I199" s="149"/>
+      <c r="J199" s="150"/>
+      <c r="K199" s="127"/>
     </row>
     <row r="200" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="137"/>
-      <c r="C200" s="138"/>
-      <c r="D200" s="138"/>
-      <c r="E200" s="139"/>
-      <c r="F200" s="126"/>
-      <c r="G200" s="130"/>
-      <c r="H200" s="131"/>
-      <c r="I200" s="130"/>
-      <c r="J200" s="131"/>
-      <c r="K200" s="117"/>
+      <c r="B200" s="134"/>
+      <c r="C200" s="135"/>
+      <c r="D200" s="135"/>
+      <c r="E200" s="136"/>
+      <c r="F200" s="118"/>
+      <c r="G200" s="149"/>
+      <c r="H200" s="150"/>
+      <c r="I200" s="149"/>
+      <c r="J200" s="150"/>
+      <c r="K200" s="127"/>
     </row>
     <row r="201" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="137"/>
-      <c r="C201" s="138"/>
-      <c r="D201" s="138"/>
-      <c r="E201" s="139"/>
-      <c r="F201" s="126"/>
-      <c r="G201" s="130"/>
-      <c r="H201" s="131"/>
-      <c r="I201" s="130"/>
-      <c r="J201" s="131"/>
-      <c r="K201" s="117"/>
+      <c r="B201" s="134"/>
+      <c r="C201" s="135"/>
+      <c r="D201" s="135"/>
+      <c r="E201" s="136"/>
+      <c r="F201" s="118"/>
+      <c r="G201" s="149"/>
+      <c r="H201" s="150"/>
+      <c r="I201" s="149"/>
+      <c r="J201" s="150"/>
+      <c r="K201" s="127"/>
     </row>
     <row r="202" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="137"/>
-      <c r="C202" s="138"/>
-      <c r="D202" s="138"/>
-      <c r="E202" s="139"/>
-      <c r="F202" s="126"/>
-      <c r="G202" s="130"/>
-      <c r="H202" s="131"/>
-      <c r="I202" s="130"/>
-      <c r="J202" s="131"/>
-      <c r="K202" s="117"/>
+      <c r="B202" s="134"/>
+      <c r="C202" s="135"/>
+      <c r="D202" s="135"/>
+      <c r="E202" s="136"/>
+      <c r="F202" s="118"/>
+      <c r="G202" s="149"/>
+      <c r="H202" s="150"/>
+      <c r="I202" s="149"/>
+      <c r="J202" s="150"/>
+      <c r="K202" s="127"/>
     </row>
     <row r="203" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="140"/>
-      <c r="C203" s="141"/>
-      <c r="D203" s="141"/>
-      <c r="E203" s="142"/>
-      <c r="F203" s="127"/>
-      <c r="G203" s="132"/>
-      <c r="H203" s="133"/>
-      <c r="I203" s="132"/>
-      <c r="J203" s="133"/>
-      <c r="K203" s="118"/>
+      <c r="B203" s="137"/>
+      <c r="C203" s="138"/>
+      <c r="D203" s="138"/>
+      <c r="E203" s="139"/>
+      <c r="F203" s="119"/>
+      <c r="G203" s="151"/>
+      <c r="H203" s="152"/>
+      <c r="I203" s="151"/>
+      <c r="J203" s="152"/>
+      <c r="K203" s="128"/>
     </row>
     <row r="204" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="144" t="s">
+      <c r="B204" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="C204" s="144"/>
-      <c r="D204" s="144"/>
-      <c r="E204" s="144"/>
-      <c r="F204" s="160" t="s">
+      <c r="C204" s="107"/>
+      <c r="D204" s="107"/>
+      <c r="E204" s="107"/>
+      <c r="F204" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="G204" s="105" t="s">
+      <c r="G204" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H204" s="105"/>
-      <c r="I204" s="105" t="s">
+      <c r="H204" s="94"/>
+      <c r="I204" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="J204" s="105"/>
-      <c r="K204" s="105" t="s">
+      <c r="J204" s="94"/>
+      <c r="K204" s="94" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="205" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="144"/>
-      <c r="C205" s="144"/>
-      <c r="D205" s="144"/>
-      <c r="E205" s="144"/>
-      <c r="F205" s="160"/>
-      <c r="G205" s="105"/>
-      <c r="H205" s="105"/>
-      <c r="I205" s="105"/>
-      <c r="J205" s="105"/>
-      <c r="K205" s="105"/>
+      <c r="B205" s="107"/>
+      <c r="C205" s="107"/>
+      <c r="D205" s="107"/>
+      <c r="E205" s="107"/>
+      <c r="F205" s="108"/>
+      <c r="G205" s="94"/>
+      <c r="H205" s="94"/>
+      <c r="I205" s="94"/>
+      <c r="J205" s="94"/>
+      <c r="K205" s="94"/>
     </row>
     <row r="206" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="144"/>
-      <c r="C206" s="144"/>
-      <c r="D206" s="144"/>
-      <c r="E206" s="144"/>
-      <c r="F206" s="160"/>
-      <c r="G206" s="105"/>
-      <c r="H206" s="105"/>
-      <c r="I206" s="105"/>
-      <c r="J206" s="105"/>
-      <c r="K206" s="105"/>
+      <c r="B206" s="107"/>
+      <c r="C206" s="107"/>
+      <c r="D206" s="107"/>
+      <c r="E206" s="107"/>
+      <c r="F206" s="108"/>
+      <c r="G206" s="94"/>
+      <c r="H206" s="94"/>
+      <c r="I206" s="94"/>
+      <c r="J206" s="94"/>
+      <c r="K206" s="94"/>
     </row>
     <row r="207" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="144"/>
-      <c r="C207" s="144"/>
-      <c r="D207" s="144"/>
-      <c r="E207" s="144"/>
-      <c r="F207" s="160"/>
-      <c r="G207" s="105"/>
-      <c r="H207" s="105"/>
-      <c r="I207" s="105"/>
-      <c r="J207" s="105"/>
-      <c r="K207" s="105"/>
+      <c r="B207" s="107"/>
+      <c r="C207" s="107"/>
+      <c r="D207" s="107"/>
+      <c r="E207" s="107"/>
+      <c r="F207" s="108"/>
+      <c r="G207" s="94"/>
+      <c r="H207" s="94"/>
+      <c r="I207" s="94"/>
+      <c r="J207" s="94"/>
+      <c r="K207" s="94"/>
     </row>
     <row r="208" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="144"/>
-      <c r="C208" s="144"/>
-      <c r="D208" s="144"/>
-      <c r="E208" s="144"/>
-      <c r="F208" s="160"/>
-      <c r="G208" s="105"/>
-      <c r="H208" s="105"/>
-      <c r="I208" s="105"/>
-      <c r="J208" s="105"/>
-      <c r="K208" s="105"/>
+      <c r="B208" s="107"/>
+      <c r="C208" s="107"/>
+      <c r="D208" s="107"/>
+      <c r="E208" s="107"/>
+      <c r="F208" s="108"/>
+      <c r="G208" s="94"/>
+      <c r="H208" s="94"/>
+      <c r="I208" s="94"/>
+      <c r="J208" s="94"/>
+      <c r="K208" s="94"/>
     </row>
     <row r="209" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="144"/>
-      <c r="C209" s="144"/>
-      <c r="D209" s="144"/>
-      <c r="E209" s="144"/>
-      <c r="F209" s="160"/>
-      <c r="G209" s="105"/>
-      <c r="H209" s="105"/>
-      <c r="I209" s="105"/>
-      <c r="J209" s="105"/>
-      <c r="K209" s="105"/>
+      <c r="B209" s="107"/>
+      <c r="C209" s="107"/>
+      <c r="D209" s="107"/>
+      <c r="E209" s="107"/>
+      <c r="F209" s="108"/>
+      <c r="G209" s="94"/>
+      <c r="H209" s="94"/>
+      <c r="I209" s="94"/>
+      <c r="J209" s="94"/>
+      <c r="K209" s="94"/>
     </row>
     <row r="210" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="144"/>
-      <c r="C210" s="144"/>
-      <c r="D210" s="144"/>
-      <c r="E210" s="144"/>
-      <c r="F210" s="160"/>
-      <c r="G210" s="105"/>
-      <c r="H210" s="105"/>
-      <c r="I210" s="105"/>
-      <c r="J210" s="105"/>
-      <c r="K210" s="105"/>
+      <c r="B210" s="107"/>
+      <c r="C210" s="107"/>
+      <c r="D210" s="107"/>
+      <c r="E210" s="107"/>
+      <c r="F210" s="108"/>
+      <c r="G210" s="94"/>
+      <c r="H210" s="94"/>
+      <c r="I210" s="94"/>
+      <c r="J210" s="94"/>
+      <c r="K210" s="94"/>
     </row>
     <row r="211" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="144"/>
-      <c r="C211" s="144"/>
-      <c r="D211" s="144"/>
-      <c r="E211" s="144"/>
-      <c r="F211" s="160"/>
-      <c r="G211" s="105"/>
-      <c r="H211" s="105"/>
-      <c r="I211" s="105"/>
-      <c r="J211" s="105"/>
-      <c r="K211" s="105"/>
+      <c r="B211" s="107"/>
+      <c r="C211" s="107"/>
+      <c r="D211" s="107"/>
+      <c r="E211" s="107"/>
+      <c r="F211" s="108"/>
+      <c r="G211" s="94"/>
+      <c r="H211" s="94"/>
+      <c r="I211" s="94"/>
+      <c r="J211" s="94"/>
+      <c r="K211" s="94"/>
     </row>
     <row r="212" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="144"/>
-      <c r="C212" s="144"/>
-      <c r="D212" s="144"/>
-      <c r="E212" s="144"/>
-      <c r="F212" s="160"/>
-      <c r="G212" s="105"/>
-      <c r="H212" s="105"/>
-      <c r="I212" s="105"/>
-      <c r="J212" s="105"/>
-      <c r="K212" s="105"/>
+      <c r="B212" s="107"/>
+      <c r="C212" s="107"/>
+      <c r="D212" s="107"/>
+      <c r="E212" s="107"/>
+      <c r="F212" s="108"/>
+      <c r="G212" s="94"/>
+      <c r="H212" s="94"/>
+      <c r="I212" s="94"/>
+      <c r="J212" s="94"/>
+      <c r="K212" s="94"/>
     </row>
     <row r="213" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="144"/>
-      <c r="C213" s="144"/>
-      <c r="D213" s="144"/>
-      <c r="E213" s="144"/>
-      <c r="F213" s="160"/>
-      <c r="G213" s="105"/>
-      <c r="H213" s="105"/>
-      <c r="I213" s="105"/>
-      <c r="J213" s="105"/>
-      <c r="K213" s="105"/>
+      <c r="B213" s="107"/>
+      <c r="C213" s="107"/>
+      <c r="D213" s="107"/>
+      <c r="E213" s="107"/>
+      <c r="F213" s="108"/>
+      <c r="G213" s="94"/>
+      <c r="H213" s="94"/>
+      <c r="I213" s="94"/>
+      <c r="J213" s="94"/>
+      <c r="K213" s="94"/>
     </row>
     <row r="214" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="144"/>
-      <c r="C214" s="144"/>
-      <c r="D214" s="144"/>
-      <c r="E214" s="144"/>
-      <c r="F214" s="160"/>
-      <c r="G214" s="105"/>
-      <c r="H214" s="105"/>
-      <c r="I214" s="105"/>
-      <c r="J214" s="105"/>
-      <c r="K214" s="105"/>
+      <c r="B214" s="107"/>
+      <c r="C214" s="107"/>
+      <c r="D214" s="107"/>
+      <c r="E214" s="107"/>
+      <c r="F214" s="108"/>
+      <c r="G214" s="94"/>
+      <c r="H214" s="94"/>
+      <c r="I214" s="94"/>
+      <c r="J214" s="94"/>
+      <c r="K214" s="94"/>
     </row>
     <row r="215" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="144"/>
-      <c r="C215" s="144"/>
-      <c r="D215" s="144"/>
-      <c r="E215" s="144"/>
-      <c r="F215" s="160"/>
-      <c r="G215" s="105"/>
-      <c r="H215" s="105"/>
-      <c r="I215" s="105"/>
-      <c r="J215" s="105"/>
-      <c r="K215" s="105"/>
+      <c r="B215" s="107"/>
+      <c r="C215" s="107"/>
+      <c r="D215" s="107"/>
+      <c r="E215" s="107"/>
+      <c r="F215" s="108"/>
+      <c r="G215" s="94"/>
+      <c r="H215" s="94"/>
+      <c r="I215" s="94"/>
+      <c r="J215" s="94"/>
+      <c r="K215" s="94"/>
     </row>
     <row r="216" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="144"/>
-      <c r="C216" s="144"/>
-      <c r="D216" s="144"/>
-      <c r="E216" s="144"/>
-      <c r="F216" s="160"/>
-      <c r="G216" s="105"/>
-      <c r="H216" s="105"/>
-      <c r="I216" s="105"/>
-      <c r="J216" s="105"/>
-      <c r="K216" s="105"/>
+      <c r="B216" s="107"/>
+      <c r="C216" s="107"/>
+      <c r="D216" s="107"/>
+      <c r="E216" s="107"/>
+      <c r="F216" s="108"/>
+      <c r="G216" s="94"/>
+      <c r="H216" s="94"/>
+      <c r="I216" s="94"/>
+      <c r="J216" s="94"/>
+      <c r="K216" s="94"/>
     </row>
     <row r="217" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="144"/>
-      <c r="C217" s="144"/>
-      <c r="D217" s="144"/>
-      <c r="E217" s="144"/>
-      <c r="F217" s="160"/>
-      <c r="G217" s="105"/>
-      <c r="H217" s="105"/>
-      <c r="I217" s="105"/>
-      <c r="J217" s="105"/>
-      <c r="K217" s="105"/>
+      <c r="B217" s="107"/>
+      <c r="C217" s="107"/>
+      <c r="D217" s="107"/>
+      <c r="E217" s="107"/>
+      <c r="F217" s="108"/>
+      <c r="G217" s="94"/>
+      <c r="H217" s="94"/>
+      <c r="I217" s="94"/>
+      <c r="J217" s="94"/>
+      <c r="K217" s="94"/>
     </row>
     <row r="218" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="144"/>
-      <c r="C218" s="144"/>
-      <c r="D218" s="144"/>
-      <c r="E218" s="144"/>
-      <c r="F218" s="160"/>
-      <c r="G218" s="105"/>
-      <c r="H218" s="105"/>
-      <c r="I218" s="105"/>
-      <c r="J218" s="105"/>
-      <c r="K218" s="105"/>
+      <c r="B218" s="107"/>
+      <c r="C218" s="107"/>
+      <c r="D218" s="107"/>
+      <c r="E218" s="107"/>
+      <c r="F218" s="108"/>
+      <c r="G218" s="94"/>
+      <c r="H218" s="94"/>
+      <c r="I218" s="94"/>
+      <c r="J218" s="94"/>
+      <c r="K218" s="94"/>
     </row>
     <row r="219" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="144"/>
-      <c r="C219" s="144"/>
-      <c r="D219" s="144"/>
-      <c r="E219" s="144"/>
-      <c r="F219" s="160"/>
-      <c r="G219" s="105"/>
-      <c r="H219" s="105"/>
-      <c r="I219" s="105"/>
-      <c r="J219" s="105"/>
-      <c r="K219" s="105"/>
+      <c r="B219" s="107"/>
+      <c r="C219" s="107"/>
+      <c r="D219" s="107"/>
+      <c r="E219" s="107"/>
+      <c r="F219" s="108"/>
+      <c r="G219" s="94"/>
+      <c r="H219" s="94"/>
+      <c r="I219" s="94"/>
+      <c r="J219" s="94"/>
+      <c r="K219" s="94"/>
     </row>
     <row r="220" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="145"/>
-      <c r="C220" s="146"/>
-      <c r="D220" s="146"/>
-      <c r="E220" s="146"/>
-      <c r="F220" s="146"/>
-      <c r="G220" s="147" t="s">
+      <c r="B220" s="129"/>
+      <c r="C220" s="130"/>
+      <c r="D220" s="130"/>
+      <c r="E220" s="130"/>
+      <c r="F220" s="130"/>
+      <c r="G220" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="H220" s="147"/>
-      <c r="I220" s="147"/>
-      <c r="J220" s="147"/>
-      <c r="K220" s="148"/>
+      <c r="H220" s="140"/>
+      <c r="I220" s="140"/>
+      <c r="J220" s="140"/>
+      <c r="K220" s="141"/>
     </row>
     <row r="221" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="19"/>
@@ -11266,122 +11268,122 @@
       <c r="K221" s="13"/>
     </row>
     <row r="222" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="115" t="s">
+      <c r="B222" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="C222" s="115"/>
-      <c r="D222" s="115"/>
-      <c r="E222" s="115"/>
-      <c r="F222" s="114" t="s">
+      <c r="C222" s="160"/>
+      <c r="D222" s="160"/>
+      <c r="E222" s="160"/>
+      <c r="F222" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="G222" s="108" t="s">
+      <c r="G222" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="H222" s="109"/>
-      <c r="I222" s="108" t="s">
+      <c r="H222" s="155"/>
+      <c r="I222" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="J222" s="109"/>
-      <c r="K222" s="105" t="s">
+      <c r="J222" s="155"/>
+      <c r="K222" s="94" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="223" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="115"/>
-      <c r="C223" s="115"/>
-      <c r="D223" s="115"/>
-      <c r="E223" s="115"/>
-      <c r="F223" s="114"/>
-      <c r="G223" s="110"/>
-      <c r="H223" s="111"/>
-      <c r="I223" s="110"/>
-      <c r="J223" s="111"/>
-      <c r="K223" s="105"/>
+      <c r="B223" s="160"/>
+      <c r="C223" s="160"/>
+      <c r="D223" s="160"/>
+      <c r="E223" s="160"/>
+      <c r="F223" s="146"/>
+      <c r="G223" s="156"/>
+      <c r="H223" s="157"/>
+      <c r="I223" s="156"/>
+      <c r="J223" s="157"/>
+      <c r="K223" s="94"/>
     </row>
     <row r="224" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="115"/>
-      <c r="C224" s="115"/>
-      <c r="D224" s="115"/>
-      <c r="E224" s="115"/>
-      <c r="F224" s="114"/>
-      <c r="G224" s="110"/>
-      <c r="H224" s="111"/>
-      <c r="I224" s="110"/>
-      <c r="J224" s="111"/>
-      <c r="K224" s="105"/>
+      <c r="B224" s="160"/>
+      <c r="C224" s="160"/>
+      <c r="D224" s="160"/>
+      <c r="E224" s="160"/>
+      <c r="F224" s="146"/>
+      <c r="G224" s="156"/>
+      <c r="H224" s="157"/>
+      <c r="I224" s="156"/>
+      <c r="J224" s="157"/>
+      <c r="K224" s="94"/>
     </row>
     <row r="225" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="115"/>
-      <c r="C225" s="115"/>
-      <c r="D225" s="115"/>
-      <c r="E225" s="115"/>
-      <c r="F225" s="114"/>
-      <c r="G225" s="110"/>
-      <c r="H225" s="111"/>
-      <c r="I225" s="110"/>
-      <c r="J225" s="111"/>
-      <c r="K225" s="105"/>
+      <c r="B225" s="160"/>
+      <c r="C225" s="160"/>
+      <c r="D225" s="160"/>
+      <c r="E225" s="160"/>
+      <c r="F225" s="146"/>
+      <c r="G225" s="156"/>
+      <c r="H225" s="157"/>
+      <c r="I225" s="156"/>
+      <c r="J225" s="157"/>
+      <c r="K225" s="94"/>
     </row>
     <row r="226" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="115"/>
-      <c r="C226" s="115"/>
-      <c r="D226" s="115"/>
-      <c r="E226" s="115"/>
-      <c r="F226" s="114"/>
-      <c r="G226" s="110"/>
-      <c r="H226" s="111"/>
-      <c r="I226" s="110"/>
-      <c r="J226" s="111"/>
-      <c r="K226" s="105"/>
+      <c r="B226" s="160"/>
+      <c r="C226" s="160"/>
+      <c r="D226" s="160"/>
+      <c r="E226" s="160"/>
+      <c r="F226" s="146"/>
+      <c r="G226" s="156"/>
+      <c r="H226" s="157"/>
+      <c r="I226" s="156"/>
+      <c r="J226" s="157"/>
+      <c r="K226" s="94"/>
     </row>
     <row r="227" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="115"/>
-      <c r="C227" s="115"/>
-      <c r="D227" s="115"/>
-      <c r="E227" s="115"/>
-      <c r="F227" s="114"/>
-      <c r="G227" s="110"/>
-      <c r="H227" s="111"/>
-      <c r="I227" s="110"/>
-      <c r="J227" s="111"/>
-      <c r="K227" s="105"/>
+      <c r="B227" s="160"/>
+      <c r="C227" s="160"/>
+      <c r="D227" s="160"/>
+      <c r="E227" s="160"/>
+      <c r="F227" s="146"/>
+      <c r="G227" s="156"/>
+      <c r="H227" s="157"/>
+      <c r="I227" s="156"/>
+      <c r="J227" s="157"/>
+      <c r="K227" s="94"/>
     </row>
     <row r="228" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="115"/>
-      <c r="C228" s="115"/>
-      <c r="D228" s="115"/>
-      <c r="E228" s="115"/>
-      <c r="F228" s="114"/>
-      <c r="G228" s="110"/>
-      <c r="H228" s="111"/>
-      <c r="I228" s="110"/>
-      <c r="J228" s="111"/>
-      <c r="K228" s="105"/>
+      <c r="B228" s="160"/>
+      <c r="C228" s="160"/>
+      <c r="D228" s="160"/>
+      <c r="E228" s="160"/>
+      <c r="F228" s="146"/>
+      <c r="G228" s="156"/>
+      <c r="H228" s="157"/>
+      <c r="I228" s="156"/>
+      <c r="J228" s="157"/>
+      <c r="K228" s="94"/>
     </row>
     <row r="229" spans="2:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="115"/>
-      <c r="C229" s="115"/>
-      <c r="D229" s="115"/>
-      <c r="E229" s="115"/>
-      <c r="F229" s="114"/>
-      <c r="G229" s="110"/>
-      <c r="H229" s="111"/>
-      <c r="I229" s="110"/>
-      <c r="J229" s="111"/>
-      <c r="K229" s="105"/>
+      <c r="B229" s="160"/>
+      <c r="C229" s="160"/>
+      <c r="D229" s="160"/>
+      <c r="E229" s="160"/>
+      <c r="F229" s="146"/>
+      <c r="G229" s="156"/>
+      <c r="H229" s="157"/>
+      <c r="I229" s="156"/>
+      <c r="J229" s="157"/>
+      <c r="K229" s="94"/>
     </row>
     <row r="230" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="115"/>
-      <c r="C230" s="115"/>
-      <c r="D230" s="115"/>
-      <c r="E230" s="115"/>
-      <c r="F230" s="114"/>
-      <c r="G230" s="112"/>
-      <c r="H230" s="113"/>
-      <c r="I230" s="112"/>
-      <c r="J230" s="113"/>
-      <c r="K230" s="105"/>
+      <c r="B230" s="160"/>
+      <c r="C230" s="160"/>
+      <c r="D230" s="160"/>
+      <c r="E230" s="160"/>
+      <c r="F230" s="146"/>
+      <c r="G230" s="158"/>
+      <c r="H230" s="159"/>
+      <c r="I230" s="158"/>
+      <c r="J230" s="159"/>
+      <c r="K230" s="94"/>
     </row>
     <row r="231" spans="2:11" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="75"/>
@@ -11396,60 +11398,60 @@
       <c r="K231" s="83"/>
     </row>
     <row r="232" spans="2:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="107" t="s">
+      <c r="B232" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="C232" s="107"/>
-      <c r="D232" s="107"/>
-      <c r="E232" s="107"/>
-      <c r="F232" s="107"/>
-      <c r="G232" s="107"/>
-      <c r="H232" s="107"/>
-      <c r="I232" s="107"/>
-      <c r="J232" s="107"/>
-      <c r="K232" s="107"/>
+      <c r="C232" s="153"/>
+      <c r="D232" s="153"/>
+      <c r="E232" s="153"/>
+      <c r="F232" s="153"/>
+      <c r="G232" s="153"/>
+      <c r="H232" s="153"/>
+      <c r="I232" s="153"/>
+      <c r="J232" s="153"/>
+      <c r="K232" s="153"/>
     </row>
     <row r="233" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="107" t="s">
+      <c r="B233" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="C233" s="107"/>
-      <c r="D233" s="107"/>
-      <c r="E233" s="107"/>
-      <c r="F233" s="107"/>
-      <c r="G233" s="107"/>
-      <c r="H233" s="107"/>
-      <c r="I233" s="107"/>
-      <c r="J233" s="107"/>
-      <c r="K233" s="107"/>
+      <c r="C233" s="153"/>
+      <c r="D233" s="153"/>
+      <c r="E233" s="153"/>
+      <c r="F233" s="153"/>
+      <c r="G233" s="153"/>
+      <c r="H233" s="153"/>
+      <c r="I233" s="153"/>
+      <c r="J233" s="153"/>
+      <c r="K233" s="153"/>
     </row>
     <row r="234" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="107" t="s">
+      <c r="B234" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="C234" s="107"/>
-      <c r="D234" s="107"/>
-      <c r="E234" s="107"/>
-      <c r="F234" s="107"/>
-      <c r="G234" s="107"/>
-      <c r="H234" s="107"/>
-      <c r="I234" s="107"/>
-      <c r="J234" s="107"/>
-      <c r="K234" s="107"/>
+      <c r="C234" s="153"/>
+      <c r="D234" s="153"/>
+      <c r="E234" s="153"/>
+      <c r="F234" s="153"/>
+      <c r="G234" s="153"/>
+      <c r="H234" s="153"/>
+      <c r="I234" s="153"/>
+      <c r="J234" s="153"/>
+      <c r="K234" s="153"/>
     </row>
     <row r="235" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="107" t="s">
+      <c r="B235" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="C235" s="107"/>
-      <c r="D235" s="107"/>
-      <c r="E235" s="107"/>
-      <c r="F235" s="107"/>
-      <c r="G235" s="107"/>
-      <c r="H235" s="107"/>
-      <c r="I235" s="107"/>
-      <c r="J235" s="107"/>
-      <c r="K235" s="107"/>
+      <c r="C235" s="153"/>
+      <c r="D235" s="153"/>
+      <c r="E235" s="153"/>
+      <c r="F235" s="153"/>
+      <c r="G235" s="153"/>
+      <c r="H235" s="153"/>
+      <c r="I235" s="153"/>
+      <c r="J235" s="153"/>
+      <c r="K235" s="153"/>
     </row>
     <row r="236" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="4"/>
@@ -11458,16 +11460,49 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B204:E219"/>
-    <mergeCell ref="F204:F219"/>
-    <mergeCell ref="G204:H219"/>
-    <mergeCell ref="I204:J219"/>
-    <mergeCell ref="K204:K219"/>
-    <mergeCell ref="B20:E41"/>
-    <mergeCell ref="F20:F41"/>
-    <mergeCell ref="G20:H41"/>
-    <mergeCell ref="I20:J41"/>
-    <mergeCell ref="K20:K41"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="I222:J230"/>
+    <mergeCell ref="K222:K230"/>
+    <mergeCell ref="B232:K232"/>
+    <mergeCell ref="B233:K233"/>
+    <mergeCell ref="B234:K234"/>
+    <mergeCell ref="F222:F230"/>
+    <mergeCell ref="B222:E230"/>
+    <mergeCell ref="G222:H230"/>
+    <mergeCell ref="K5:K19"/>
+    <mergeCell ref="G5:H19"/>
+    <mergeCell ref="F5:F19"/>
+    <mergeCell ref="K190:K203"/>
+    <mergeCell ref="I190:J203"/>
+    <mergeCell ref="G166:H189"/>
+    <mergeCell ref="F190:F203"/>
+    <mergeCell ref="G190:H203"/>
+    <mergeCell ref="F166:F189"/>
+    <mergeCell ref="K166:K189"/>
+    <mergeCell ref="I166:J189"/>
+    <mergeCell ref="I42:J57"/>
+    <mergeCell ref="I92:J104"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E19"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J19"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B42:E57"/>
+    <mergeCell ref="K42:K57"/>
+    <mergeCell ref="F42:F57"/>
+    <mergeCell ref="G42:H57"/>
+    <mergeCell ref="B58:E91"/>
+    <mergeCell ref="F58:F91"/>
+    <mergeCell ref="K58:K91"/>
+    <mergeCell ref="G58:H91"/>
+    <mergeCell ref="I58:J91"/>
+    <mergeCell ref="B92:E104"/>
+    <mergeCell ref="K92:K104"/>
+    <mergeCell ref="F92:F104"/>
+    <mergeCell ref="B190:E203"/>
+    <mergeCell ref="B140:E154"/>
+    <mergeCell ref="K140:K154"/>
+    <mergeCell ref="I155:J165"/>
     <mergeCell ref="B220:F220"/>
     <mergeCell ref="B155:E165"/>
     <mergeCell ref="G92:H104"/>
@@ -11484,49 +11519,16 @@
     <mergeCell ref="F140:F154"/>
     <mergeCell ref="G155:H165"/>
     <mergeCell ref="K155:K165"/>
-    <mergeCell ref="B92:E104"/>
-    <mergeCell ref="K92:K104"/>
-    <mergeCell ref="F92:F104"/>
-    <mergeCell ref="B190:E203"/>
-    <mergeCell ref="B140:E154"/>
-    <mergeCell ref="K140:K154"/>
-    <mergeCell ref="I155:J165"/>
-    <mergeCell ref="B42:E57"/>
-    <mergeCell ref="K42:K57"/>
-    <mergeCell ref="F42:F57"/>
-    <mergeCell ref="G42:H57"/>
-    <mergeCell ref="B58:E91"/>
-    <mergeCell ref="F58:F91"/>
-    <mergeCell ref="K58:K91"/>
-    <mergeCell ref="G58:H91"/>
-    <mergeCell ref="I58:J91"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E19"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J19"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K5:K19"/>
-    <mergeCell ref="G5:H19"/>
-    <mergeCell ref="F5:F19"/>
-    <mergeCell ref="K190:K203"/>
-    <mergeCell ref="I190:J203"/>
-    <mergeCell ref="G166:H189"/>
-    <mergeCell ref="F190:F203"/>
-    <mergeCell ref="G190:H203"/>
-    <mergeCell ref="F166:F189"/>
-    <mergeCell ref="K166:K189"/>
-    <mergeCell ref="I166:J189"/>
-    <mergeCell ref="I42:J57"/>
-    <mergeCell ref="I92:J104"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="I222:J230"/>
-    <mergeCell ref="K222:K230"/>
-    <mergeCell ref="B232:K232"/>
-    <mergeCell ref="B233:K233"/>
-    <mergeCell ref="B234:K234"/>
-    <mergeCell ref="F222:F230"/>
-    <mergeCell ref="B222:E230"/>
-    <mergeCell ref="G222:H230"/>
+    <mergeCell ref="B20:E41"/>
+    <mergeCell ref="F20:F41"/>
+    <mergeCell ref="G20:H41"/>
+    <mergeCell ref="I20:J41"/>
+    <mergeCell ref="K20:K41"/>
+    <mergeCell ref="B204:E219"/>
+    <mergeCell ref="F204:F219"/>
+    <mergeCell ref="G204:H219"/>
+    <mergeCell ref="I204:J219"/>
+    <mergeCell ref="K204:K219"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -11578,220 +11580,220 @@
       </c>
     </row>
     <row r="2" spans="2:9" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="90"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="151" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="95">
         <v>2</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="105" t="s">
+      <c r="H3" s="95"/>
+      <c r="I3" s="94" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="105"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="105"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="105"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="105"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="105"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="105"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="94"/>
     </row>
     <row r="10" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="105"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="105"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="105"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="105"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="105"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="105"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="105"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="94"/>
     </row>
     <row r="18" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="105"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="105"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="94"/>
     </row>
     <row r="20" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="105"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="94"/>
     </row>
     <row r="21" spans="2:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="105"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="94"/>
     </row>
     <row r="22" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11849,10 +11851,10 @@
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
-      <c r="I1" s="162" t="s">
+      <c r="I1" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="162"/>
+      <c r="J1" s="170"/>
     </row>
     <row r="2" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="47"/>
@@ -11867,19 +11869,19 @@
       <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:20" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161" t="s">
+      <c r="B3" s="169"/>
+      <c r="C3" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
       <c r="J3" s="55" t="s">
         <v>2</v>
       </c>
@@ -11893,21 +11895,21 @@
       <c r="T3" s="44"/>
     </row>
     <row r="4" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="56">
         <v>15</v>
       </c>
@@ -11921,17 +11923,17 @@
       <c r="T4" s="44"/>
     </row>
     <row r="5" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="165"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166" t="s">
+      <c r="A5" s="173"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="57">
         <v>5</v>
       </c>
@@ -11945,17 +11947,17 @@
       <c r="T5" s="44"/>
     </row>
     <row r="6" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="167"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168" t="s">
+      <c r="A6" s="174"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
       <c r="J6" s="58">
         <v>0</v>
       </c>
@@ -11969,21 +11971,21 @@
       <c r="T6" s="44"/>
     </row>
     <row r="7" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164" t="s">
+      <c r="B7" s="172"/>
+      <c r="C7" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164" t="s">
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
       <c r="J7" s="56">
         <v>15</v>
       </c>
@@ -11997,17 +11999,17 @@
       <c r="T7" s="44"/>
     </row>
     <row r="8" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="165"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166" t="s">
+      <c r="A8" s="173"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
       <c r="J8" s="57">
         <v>5</v>
       </c>
@@ -12021,17 +12023,17 @@
       <c r="T8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="167"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168" t="s">
+      <c r="A9" s="174"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
       <c r="J9" s="58">
         <v>0</v>
       </c>
@@ -12045,18 +12047,18 @@
       <c r="T9" s="44"/>
     </row>
     <row r="10" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="171"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="173" t="s">
+      <c r="A10" s="164"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
       <c r="M10" s="44"/>
       <c r="N10" s="44"/>
       <c r="O10" s="44"/>
@@ -12067,26 +12069,21 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A7:B9"/>
@@ -12098,6 +12095,11 @@
     <mergeCell ref="A4:B6"/>
     <mergeCell ref="C4:E6"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.78740157480314965" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
